--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_script_asil\ut_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A98F6-2B48-4A43-A696-D9625697FB3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="780" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,13 +335,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,30 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_script_asil\ut_auto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2426C754-FC8A-4FDA-9173-77BDC0F5C7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="780" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="5055" yWindow="1200" windowWidth="16410" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Input factor</t>
+  </si>
+  <si>
+    <t>Output element</t>
+  </si>
+  <si>
+    <t>[a]int32_t var1</t>
+  </si>
+  <si>
+    <t>[a]uint32_t var2</t>
+  </si>
+  <si>
+    <t>Return value</t>
+  </si>
+  <si>
+    <t>&amp;ut_var3</t>
+  </si>
+  <si>
+    <t>[a]uint32_t * var3</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0xCCCCCCCC</t>
+  </si>
+  <si>
+    <t>0xAAAAAAAA</t>
+  </si>
+  <si>
+    <t>[a]ut_var3</t>
+  </si>
+  <si>
+    <t>E_OK</t>
+  </si>
+  <si>
+    <t>E_SYS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -34,15 +93,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,12 +115,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -335,50 +460,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="B1">
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="str">
+        <f>$B$1&amp;"-"&amp;(ROW(B5)-ROW(B$5)+1)</f>
+        <v>1-1</v>
+      </c>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="str">
+        <f t="shared" ref="B6:B8" si="0">$B$1&amp;"-"&amp;(ROW(B6)-ROW(B$5)+1)</f>
+        <v>1-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2426C754-FC8A-4FDA-9173-77BDC0F5C7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="1200" windowWidth="16410" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="1650" windowWidth="16410" windowHeight="14715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,11 +172,11 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -460,11 +459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,131 +477,131 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="2" t="str">
         <f>$B$1&amp;"-"&amp;(ROW(B5)-ROW(B$5)+1)</f>
         <v>1-1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="str">
+      <c r="B6" s="2" t="str">
         <f t="shared" ref="B6:B8" si="0">$B$1&amp;"-"&amp;(ROW(B6)-ROW(B$5)+1)</f>
         <v>1-2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="str">
+      <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1-3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="str">
+      <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1-4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="1650" windowWidth="16410" windowHeight="14715"/>
+    <workbookView xWindow="5055" yWindow="2100" windowWidth="16410" windowHeight="14715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -463,7 +463,7 @@
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ut_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="2100" windowWidth="16410" windowHeight="14715"/>
+    <workbookView xWindow="5055" yWindow="2550" windowWidth="16410" windowHeight="14715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>E_SYS</t>
+  </si>
+  <si>
+    <t>[a]struct abc var_abc</t>
   </si>
 </sst>
 </file>
@@ -460,20 +463,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -482,12 +485,13 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -499,13 +503,16 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -517,11 +524,14 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="str">
         <f>$B$1&amp;"-"&amp;(ROW(B5)-ROW(B$5)+1)</f>
         <v>1-1</v>
@@ -535,14 +545,15 @@
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
         <f t="shared" ref="B6:B8" si="0">$B$1&amp;"-"&amp;(ROW(B6)-ROW(B$5)+1)</f>
         <v>1-2</v>
@@ -556,14 +567,15 @@
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1-3</v>
@@ -577,14 +589,15 @@
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1-4</v>
@@ -598,17 +611,18 @@
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="2550" windowWidth="16410" windowHeight="14715"/>
+    <workbookView xWindow="5055" yWindow="3000" windowWidth="16410" windowHeight="14715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -76,10 +76,46 @@
     <t>E_OK</t>
   </si>
   <si>
-    <t>E_SYS</t>
-  </si>
-  <si>
     <t>[a]struct abc var_abc</t>
+  </si>
+  <si>
+    <t>int32_t var4</t>
+  </si>
+  <si>
+    <t>int32_t * var5</t>
+  </si>
+  <si>
+    <t>struct def var_def</t>
+  </si>
+  <si>
+    <t>int32_t var6</t>
+  </si>
+  <si>
+    <t>int32_t * var7</t>
+  </si>
+  <si>
+    <t>&amp;ut_var5</t>
+  </si>
+  <si>
+    <t>&amp;ut_var7</t>
+  </si>
+  <si>
+    <t>E_PAR</t>
+  </si>
+  <si>
+    <t>struct def * var_def</t>
+  </si>
+  <si>
+    <t>&amp;ut_var_def</t>
+  </si>
+  <si>
+    <t>[rt]Error func_a</t>
+  </si>
+  <si>
+    <t>[f]Error func_a</t>
+  </si>
+  <si>
+    <t>*var_func_a</t>
   </si>
 </sst>
 </file>
@@ -109,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -169,20 +205,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,167 +591,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H8"/>
+  <dimension ref="B1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="1" t="s">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="str">
-        <f>$B$1&amp;"-"&amp;(ROW(B5)-ROW(B$5)+1)</f>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="str">
+        <f>$B$1&amp;"-"&amp;(ROW(B7)-ROW(B$7)+1)</f>
         <v>1-1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="12">
+        <v>6</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="12">
+        <v>10</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="N7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B8" si="0">$B$1&amp;"-"&amp;(ROW(B6)-ROW(B$5)+1)</f>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="str">
+        <f t="shared" ref="B8:B12" si="0">$B$1&amp;"-"&amp;(ROW(B8)-ROW(B$7)+1)</f>
         <v>1-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="12">
         <v>6</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="J8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="str">
+      <c r="L8" s="12">
+        <v>10</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>1-3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="F9" s="12">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="12">
+        <v>6</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="12">
+        <v>10</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="N9" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="str">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>1-4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D10" s="12">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="H10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="12">
+        <v>6</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="12">
         <v>10</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
+      <c r="M10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12">
+        <v>4</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="12">
+        <v>6</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="12">
+        <v>10</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>1-6</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="12">
+        <v>6</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="12">
+        <v>10</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B2:B4"/>
+  <mergeCells count="15">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ut_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0E6750-C42C-48C3-BA19-C207494395DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="3000" windowWidth="16410" windowHeight="14715"/>
+    <workbookView xWindow="2730" yWindow="3180" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -116,12 +117,45 @@
   </si>
   <si>
     <t>*var_func_a</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>[a]</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>pointer</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>True/False</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>str(value)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>arg's name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,61 +285,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,11 +624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,409 +644,457 @@
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="3" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="10"/>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="str">
+      <c r="B7" s="3" t="str">
         <f>$B$1&amp;"-"&amp;(ROW(B7)-ROW(B$7)+1)</f>
         <v>1-1</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="3">
         <v>4</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="3">
         <v>6</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="3">
         <v>10</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="str">
+      <c r="B8" s="3" t="str">
         <f t="shared" ref="B8:B12" si="0">$B$1&amp;"-"&amp;(ROW(B8)-ROW(B$7)+1)</f>
         <v>1-2</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="3">
         <v>4</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="3">
         <v>6</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="3">
         <v>10</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="str">
+      <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-3</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="3">
         <v>4</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="3">
         <v>6</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="3">
         <v>10</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="str">
+      <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-4</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="3">
         <v>4</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="3">
         <v>6</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="3">
         <v>10</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="str">
+      <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-5</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="3">
         <v>4</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="3">
         <v>6</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="3">
         <v>10</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="str">
+      <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-6</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="3">
         <v>6</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="3">
         <v>10</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="M3:M5"/>
     <mergeCell ref="N3:N5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ut_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0E6750-C42C-48C3-BA19-C207494395DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="3180" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="3630" windowWidth="21600" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -86,9 +85,6 @@
     <t>int32_t * var5</t>
   </si>
   <si>
-    <t>struct def var_def</t>
-  </si>
-  <si>
     <t>int32_t var6</t>
   </si>
   <si>
@@ -119,43 +115,151 @@
     <t>*var_func_a</t>
   </si>
   <si>
-    <t>argument</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>[a]</t>
-  </si>
-  <si>
     <t>class</t>
   </si>
   <si>
-    <t>pointer</t>
-  </si>
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
     <t>True/False</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>str(value)</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>arg's name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>arg's type</t>
+  </si>
+  <si>
+    <t>declare</t>
+  </si>
+  <si>
+    <t>argument full declare</t>
+  </si>
+  <si>
+    <t>init value</t>
+  </si>
+  <si>
+    <t>check_expected</t>
+  </si>
+  <si>
+    <t>[a]ut_var5</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>0xBBBBBBBB</t>
+  </si>
+  <si>
+    <t>0xDDDDDDDD</t>
+  </si>
+  <si>
+    <t>Symbol [a]</t>
+  </si>
+  <si>
+    <t>symbol_a</t>
+  </si>
+  <si>
+    <t>int32_t var1</t>
+  </si>
+  <si>
+    <t>uint32_t var2</t>
+  </si>
+  <si>
+    <t>uint32_t * var3</t>
+  </si>
+  <si>
+    <t>int32_t</t>
+  </si>
+  <si>
+    <t>uint32_t</t>
+  </si>
+  <si>
+    <t>struct def</t>
+  </si>
+  <si>
+    <t>var1</t>
+  </si>
+  <si>
+    <t>var2</t>
+  </si>
+  <si>
+    <t>var3</t>
+  </si>
+  <si>
+    <t>var4</t>
+  </si>
+  <si>
+    <t>var5</t>
+  </si>
+  <si>
+    <t>var_def</t>
+  </si>
+  <si>
+    <t>var6</t>
+  </si>
+  <si>
+    <t>var7</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>is_pointer</t>
+  </si>
+  <si>
+    <t>is_structure</t>
+  </si>
+  <si>
+    <t>inside_structure</t>
+  </si>
+  <si>
+    <t>host_structure</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[struct abc var_abc]</t>
+  </si>
+  <si>
+    <t>[struct abc var_abc, struct def var_def]</t>
+  </si>
+  <si>
+    <t>struct def var_ghi</t>
+  </si>
+  <si>
+    <t>int32_t var8</t>
+  </si>
+  <si>
+    <t>int32_t * var9</t>
+  </si>
+  <si>
+    <t>var8</t>
+  </si>
+  <si>
+    <t>var9</t>
+  </si>
+  <si>
+    <t>[struct abc var_abc, struct def var_ghi]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +282,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -276,11 +386,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -300,21 +454,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -324,32 +502,229 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -624,126 +999,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="15"/>
-    </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="9" t="s">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="10"/>
+      <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="P3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="24"/>
+      <c r="S3" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="10"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="18"/>
+    </row>
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="10"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="19"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="11"/>
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
@@ -762,340 +1173,800 @@
       <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="Q6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="str">
-        <f>$B$1&amp;"-"&amp;(ROW(B7)-ROW(B$7)+1)</f>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="str">
+        <f>$C$1&amp;"-"&amp;(ROW(C7)-ROW(C$7)+1)</f>
         <v>1-1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>4</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="L7" s="3">
         <v>6</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="3">
-        <v>10</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="str">
-        <f t="shared" ref="B8:B12" si="0">$B$1&amp;"-"&amp;(ROW(B8)-ROW(B$7)+1)</f>
+      <c r="O7" s="3">
+        <v>10</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="str">
+        <f t="shared" ref="C8:C12" si="0">$C$1&amp;"-"&amp;(ROW(C8)-ROW(C$7)+1)</f>
         <v>1-2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>6</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="M8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="3">
+        <v>10</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="3">
-        <v>10</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="str">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>6</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="3">
-        <v>10</v>
-      </c>
       <c r="M9" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="str">
+      <c r="O9" s="3">
+        <v>10</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="3">
         <v>6</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="3">
+        <v>10</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="3">
-        <v>10</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="str">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>4</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="3">
+        <v>6</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="L11" s="3">
         <v>6</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="3">
-        <v>10</v>
-      </c>
       <c r="M11" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="str">
+      <c r="O11" s="3">
+        <v>10</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-6</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="3">
+        <v>19</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3">
+        <v>6</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>10</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="29"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="J16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D24" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C3:C5"/>
+  <mergeCells count="18">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F3:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="N3:N5"/>
+    <mergeCell ref="D2:O2"/>
   </mergeCells>
+  <conditionalFormatting sqref="D19:I21 L19:M21">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>"False"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+      <formula>"True"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E24 G24 I24 L24:M24">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+      <formula>"False"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+      <formula>"True"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"False"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"True"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:K24">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"False"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"True"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"False"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"True"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:K21">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"False"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"True"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="3630" windowWidth="21600" windowHeight="11505"/>
+    <workbookView xWindow="2730" yWindow="4530" windowWidth="9420" windowHeight="1770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -121,9 +122,6 @@
     <t>True/False</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -139,15 +137,6 @@
     <t>declare</t>
   </si>
   <si>
-    <t>argument full declare</t>
-  </si>
-  <si>
-    <t>init value</t>
-  </si>
-  <si>
-    <t>check_expected</t>
-  </si>
-  <si>
     <t>[a]ut_var5</t>
   </si>
   <si>
@@ -217,27 +206,6 @@
     <t>True</t>
   </si>
   <si>
-    <t>is_pointer</t>
-  </si>
-  <si>
-    <t>is_structure</t>
-  </si>
-  <si>
-    <t>inside_structure</t>
-  </si>
-  <si>
-    <t>host_structure</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[struct abc var_abc]</t>
-  </si>
-  <si>
-    <t>[struct abc var_abc, struct def var_def]</t>
-  </si>
-  <si>
     <t>struct def var_ghi</t>
   </si>
   <si>
@@ -253,7 +221,37 @@
     <t>var9</t>
   </si>
   <si>
-    <t>[struct abc var_abc, struct def var_ghi]</t>
+    <t>struct abc var_abc</t>
+  </si>
+  <si>
+    <t>struct abc</t>
+  </si>
+  <si>
+    <t>var_abc</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>var_ghi</t>
+  </si>
+  <si>
+    <t>separate symbol [a]</t>
+  </si>
+  <si>
+    <t>This is merged cell</t>
+  </si>
+  <si>
+    <t>This is cell</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -434,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -460,6 +458,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -469,262 +521,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1000,17 +814,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G16" sqref="G16:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1030,104 +844,104 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="20" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="10"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="17" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R3" s="24"/>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="10"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="18"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="26"/>
-      <c r="S4" s="18"/>
+      <c r="S4" s="14"/>
     </row>
     <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="10"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1135,26 +949,26 @@
         <v>18</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="N5" s="15"/>
       <c r="O5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="19"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="11"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1249,10 +1063,10 @@
         <v>11</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>13</v>
@@ -1357,10 +1171,10 @@
         <v>11</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>13</v>
@@ -1465,10 +1279,10 @@
         <v>11</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>13</v>
@@ -1529,379 +1343,260 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="29"/>
+      <c r="A14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>44</v>
+      <c r="B15" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="30" t="s">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="M22" s="31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="J4:K4"/>
+  <mergeCells count="30">
     <mergeCell ref="S3:S5"/>
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="P2:S2"/>
@@ -1916,57 +1611,84 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="N3:N5"/>
-    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
   </mergeCells>
-  <conditionalFormatting sqref="D19:I21 L19:M21">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
-      <formula>"False"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
-      <formula>"True"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E24 G24 I24 L24:M24">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
-      <formula>"False"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
-      <formula>"True"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
-      <formula>"False"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
-      <formula>"True"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:K24">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"False"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>"True"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"False"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"True"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:K21">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"False"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"True"</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ut_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B20EEC6-D372-4FAE-8333-67CB00AEECE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="780" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="99">
   <si>
     <t>#</t>
   </si>
@@ -306,12 +305,54 @@
   </si>
   <si>
     <t>assign_struct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>var5[0]</t>
+  </si>
+  <si>
+    <t>var5[1]</t>
+  </si>
+  <si>
+    <t>exp_var3</t>
+  </si>
+  <si>
+    <t>exp_var5_0</t>
+  </si>
+  <si>
+    <t>exp_var5_1</t>
+  </si>
+  <si>
+    <t>check_expect</t>
+  </si>
+  <si>
+    <t>if (CT.exp_var3 != UTS_DC) {</t>
+  </si>
+  <si>
+    <t>if (CT.exp_var5_0 != UTS_DC) {</t>
+  </si>
+  <si>
+    <t>if (CT.exp_var5_1 != UTS_DC) {</t>
+  </si>
+  <si>
+    <t>CHECK_U_INT(var3, exp_var3);</t>
+  </si>
+  <si>
+    <t>CHECK_S_INT(var5[1], exp_var5_1);</t>
+  </si>
+  <si>
+    <t>CHECK_S_INT(var5[0], exp_var5);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -545,6 +586,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -554,64 +649,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,11 +941,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,9 +962,7 @@
     <col min="10" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="16.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -925,104 +973,104 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="26" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="21" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="21" t="s">
+      <c r="Q3" s="25"/>
+      <c r="R3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="21" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="22"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1035,21 +1083,21 @@
       <c r="L5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="23"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="23"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="23"/>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1438,15 +1486,15 @@
       <c r="E14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -1468,15 +1516,15 @@
       <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -1498,15 +1546,15 @@
       <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -1528,15 +1576,15 @@
       <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="42"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -1545,62 +1593,54 @@
       <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>61</v>
+      <c r="A18" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" s="20"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
+      <c r="O18" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>22</v>
+      <c r="A19" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="17"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="38"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
@@ -1610,29 +1650,29 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="K20" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="42"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
@@ -1642,29 +1682,29 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="42"/>
+      <c r="K21" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="42"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -1673,28 +1713,30 @@
       <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>61</v>
+      <c r="A22" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="F22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="42"/>
+      <c r="K22" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="42"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -1703,57 +1745,53 @@
       <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>22</v>
+      <c r="A23" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="P23" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>21</v>
+      <c r="A24" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>30</v>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -1764,7 +1802,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
@@ -1774,16 +1812,16 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="3" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -1793,18 +1831,28 @@
       <c r="R25" s="12"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
@@ -1813,22 +1861,28 @@
       <c r="R26" s="12"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>69</v>
+      <c r="A27" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
@@ -1837,18 +1891,20 @@
       <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -1857,40 +1913,18 @@
       <c r="R28" s="12"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="A29" s="12"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
@@ -1900,29 +1934,21 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C30" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
@@ -1930,31 +1956,19 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
     </row>
-    <row r="31" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>83</v>
-      </c>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="14" t="s">
-        <v>74</v>
-      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
@@ -1962,55 +1976,79 @@
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
     </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>84</v>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>79</v>
+      <c r="C32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
+      <c r="O32" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q32" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="R32" s="12"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
@@ -2018,8 +2056,286 @@
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
     </row>
+    <row r="34" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+    </row>
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+    </row>
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="R36" s="12"/>
+    </row>
+    <row r="37" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q37" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="R37" s="12"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
     <mergeCell ref="R3:R5"/>
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="O2:R2"/>
@@ -2036,27 +2352,13 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="M3:M5"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ut_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41CB587-E0AF-4FB8-9326-550F3D1F4CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="780" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="109">
   <si>
     <t>#</t>
   </si>
@@ -347,12 +348,42 @@
   </si>
   <si>
     <t>CHECK_S_INT(var5[0], exp_var5);</t>
+  </si>
+  <si>
+    <t>Judgment</t>
+  </si>
+  <si>
+    <t>Remain</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>File *.h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +418,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -529,11 +572,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -586,6 +665,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -625,41 +728,89 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -941,11 +1092,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,110 +1118,115 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="21" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="18" t="s">
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="37"/>
+      <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="18" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="18" t="s">
+      <c r="Q3" s="33"/>
+      <c r="R3" s="26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18" t="s">
+      <c r="S3" s="37"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="31" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="19"/>
-    </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="37"/>
+    </row>
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="37"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1083,21 +1239,22 @@
       <c r="L5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="20"/>
+      <c r="M5" s="28"/>
       <c r="N5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="20"/>
+      <c r="O5" s="28"/>
       <c r="P5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="20"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="37"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1303,9 @@
       <c r="R6" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="38"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>$B$1&amp;"-"&amp;(ROW(B7)-ROW(B$7)+1)</f>
         <v>1-1</v>
@@ -1201,8 +1359,11 @@
       <c r="R7" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
         <f t="shared" ref="B8:B12" si="0">$B$1&amp;"-"&amp;(ROW(B8)-ROW(B$7)+1)</f>
         <v>1-2</v>
@@ -1255,8 +1416,11 @@
       <c r="R8" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-3</v>
@@ -1309,8 +1473,11 @@
       <c r="R9" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-4</v>
@@ -1363,8 +1530,11 @@
       <c r="R10" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-5</v>
@@ -1417,8 +1587,11 @@
       <c r="R11" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-6</v>
@@ -1471,8 +1644,11 @@
       <c r="R12" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>61</v>
       </c>
@@ -1486,15 +1662,15 @@
       <c r="E14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -1502,7 +1678,7 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1516,15 +1692,15 @@
       <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="42"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -1532,7 +1708,7 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
@@ -1546,15 +1722,15 @@
       <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="42"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -1562,7 +1738,7 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
@@ -1576,15 +1752,15 @@
       <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="42"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -1592,7 +1768,7 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>86</v>
       </c>
@@ -1616,7 +1792,7 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>61</v>
       </c>
@@ -1633,14 +1809,14 @@
       <c r="H19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="36" t="s">
+      <c r="J19" s="24"/>
+      <c r="K19" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L19" s="38"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
@@ -1648,7 +1824,7 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
@@ -1665,14 +1841,14 @@
       <c r="H20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="41" t="s">
+      <c r="J20" s="21"/>
+      <c r="K20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="42"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
@@ -1680,7 +1856,7 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
@@ -1697,14 +1873,14 @@
       <c r="H21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="41" t="s">
+      <c r="J21" s="21"/>
+      <c r="K21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="42"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -1712,7 +1888,7 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
@@ -1729,14 +1905,14 @@
       <c r="H22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="41" t="s">
+      <c r="J22" s="21"/>
+      <c r="K22" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -1744,7 +1920,7 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>86</v>
       </c>
@@ -1770,7 +1946,7 @@
       </c>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>61</v>
       </c>
@@ -1800,7 +1976,7 @@
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
@@ -1830,7 +2006,7 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>21</v>
       </c>
@@ -1860,7 +2036,7 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>20</v>
       </c>
@@ -1890,7 +2066,7 @@
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>86</v>
       </c>
@@ -1912,7 +2088,7 @@
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1932,15 +2108,15 @@
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="12"/>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -1956,7 +2132,7 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1976,7 +2152,7 @@
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>68</v>
       </c>
@@ -2024,7 +2200,7 @@
       </c>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>62</v>
       </c>
@@ -2056,7 +2232,7 @@
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
     </row>
-    <row r="34" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>83</v>
       </c>
@@ -2088,7 +2264,7 @@
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
     </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>84</v>
       </c>
@@ -2124,7 +2300,7 @@
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
     </row>
-    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>92</v>
       </c>
@@ -2154,7 +2330,7 @@
       </c>
       <c r="R36" s="12"/>
     </row>
-    <row r="37" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2180,7 +2356,7 @@
       </c>
       <c r="R37" s="12"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2200,7 +2376,7 @@
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2220,7 +2396,7 @@
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -2240,7 +2416,7 @@
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -2260,7 +2436,7 @@
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2280,7 +2456,7 @@
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2300,7 +2476,7 @@
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2320,22 +2496,929 @@
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
     </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="K46" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="L46" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="M46" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="N46" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="O46" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="P46" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q46" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="R46" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="S46" s="56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="K47" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="L47" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="M47" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="N47" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="O47" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="P47" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="R47" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="K48" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="L48" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="M48" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="N48" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="O48" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="P48" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q48" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="R48" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="S48" s="57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="L49" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="M49" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="N49" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="O49" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="P49" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q49" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="S49" s="57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="M50" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="N50" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="O50" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="P50" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q50" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="R50" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="S50" s="57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B51" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="50">
+        <v>1</v>
+      </c>
+      <c r="D51" s="51">
+        <v>2</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="51">
+        <v>4</v>
+      </c>
+      <c r="G51" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" s="51">
+        <v>6</v>
+      </c>
+      <c r="J51" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="51">
+        <v>6</v>
+      </c>
+      <c r="L51" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="N51" s="52">
+        <v>10</v>
+      </c>
+      <c r="O51" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="R51" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="S51" s="57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B52" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="50">
+        <v>1</v>
+      </c>
+      <c r="D52" s="51">
+        <v>2</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="51">
+        <v>4</v>
+      </c>
+      <c r="G52" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" s="51">
+        <v>6</v>
+      </c>
+      <c r="J52" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="51">
+        <v>6</v>
+      </c>
+      <c r="L52" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="M52" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52" s="52">
+        <v>10</v>
+      </c>
+      <c r="O52" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q52" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="R52" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="S52" s="57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="50">
+        <v>1</v>
+      </c>
+      <c r="D53" s="51">
+        <v>2</v>
+      </c>
+      <c r="E53" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="51">
+        <v>4</v>
+      </c>
+      <c r="G53" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="51">
+        <v>6</v>
+      </c>
+      <c r="J53" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="51">
+        <v>6</v>
+      </c>
+      <c r="L53" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="M53" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="N53" s="52">
+        <v>10</v>
+      </c>
+      <c r="O53" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="R53" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="S53" s="57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="50">
+        <v>1</v>
+      </c>
+      <c r="D54" s="51">
+        <v>2</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="51">
+        <v>4</v>
+      </c>
+      <c r="G54" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="51">
+        <v>6</v>
+      </c>
+      <c r="J54" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="51">
+        <v>6</v>
+      </c>
+      <c r="L54" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="M54" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="N54" s="52">
+        <v>10</v>
+      </c>
+      <c r="O54" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="P54" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="S54" s="57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="50">
+        <v>1</v>
+      </c>
+      <c r="D55" s="51">
+        <v>2</v>
+      </c>
+      <c r="E55" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="51">
+        <v>4</v>
+      </c>
+      <c r="G55" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" s="51">
+        <v>6</v>
+      </c>
+      <c r="J55" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="51">
+        <v>6</v>
+      </c>
+      <c r="L55" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="M55" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="N55" s="52">
+        <v>10</v>
+      </c>
+      <c r="O55" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="P55" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="S55" s="57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B56" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="53">
+        <v>1</v>
+      </c>
+      <c r="D56" s="54">
+        <v>2</v>
+      </c>
+      <c r="E56" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="54">
+        <v>4</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" s="54">
+        <v>6</v>
+      </c>
+      <c r="J56" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="54">
+        <v>6</v>
+      </c>
+      <c r="L56" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56" s="55">
+        <v>10</v>
+      </c>
+      <c r="O56" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="P56" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q56" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="R56" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="S56" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="24"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="1">
+        <v>4</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" s="1">
+        <v>6</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K59" s="1">
+        <v>6</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="1">
+        <v>4</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" s="1">
+        <v>6</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K60" s="1">
+        <v>6</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="1">
+        <v>4</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" s="1">
+        <v>6</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K61" s="1">
+        <v>6</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="1">
+        <v>4</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I62" s="1">
+        <v>6</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K62" s="1">
+        <v>6</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" s="1">
+        <v>6</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K63" s="1">
+        <v>6</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="1">
+        <v>4</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I64" s="1">
+        <v>6</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64" s="1">
+        <v>6</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F17:L17"/>
+  <mergeCells count="32">
+    <mergeCell ref="B58:R58"/>
+    <mergeCell ref="S2:S6"/>
     <mergeCell ref="R3:R5"/>
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="O2:R2"/>
@@ -2352,13 +3435,27 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="M3:M5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2368,11 +3465,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="F1" t="s">
         <v>51</v>
       </c>
@@ -2381,10 +3478,10 @@
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="43"/>
       <c r="E8" t="s">
         <v>53</v>
       </c>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ut_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41CB587-E0AF-4FB8-9326-550F3D1F4CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="780" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="143">
   <si>
     <t>#</t>
   </si>
@@ -377,13 +377,115 @@
     <t>None</t>
   </si>
   <si>
-    <t>File *.h</t>
+    <t>initval_row</t>
+  </si>
+  <si>
+    <t>tcfirst_row</t>
+  </si>
+  <si>
+    <t>tclast_row</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>pcl</t>
+  </si>
+  <si>
+    <t>class pcl</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>inp_first_col</t>
+  </si>
+  <si>
+    <t>inp_last_col</t>
+  </si>
+  <si>
+    <t>out_first_col</t>
+  </si>
+  <si>
+    <t>out_last_col</t>
+  </si>
+  <si>
+    <t>imp_available</t>
+  </si>
+  <si>
+    <t>out_available</t>
+  </si>
+  <si>
+    <t>sub-content</t>
+  </si>
+  <si>
+    <t>excel pcl</t>
+  </si>
+  <si>
+    <t>--input--&gt;</t>
+  </si>
+  <si>
+    <t>obj_pcl</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>pcl_handle</t>
+  </si>
+  <si>
+    <t>tc_struct_data</t>
+  </si>
+  <si>
+    <t>pcl_info</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>obj_pcl_info</t>
+  </si>
+  <si>
+    <t>obj_rows</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>contain pcl information</t>
+  </si>
+  <si>
+    <t>contain pcl data with native coordinate</t>
+  </si>
+  <si>
+    <t>tuple</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -612,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -665,154 +767,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,11 +1222,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,109 +1254,109 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="29" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="36" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="46" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="26" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="26" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="37"/>
+      <c r="S3" s="47"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="26" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="18" t="s">
+      <c r="J4" s="61"/>
+      <c r="K4" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="37"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="47"/>
     </row>
     <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1239,22 +1369,22 @@
       <c r="L5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="28"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="28"/>
+      <c r="O5" s="51"/>
       <c r="P5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="37"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1303,7 +1433,7 @@
       <c r="R6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="38"/>
+      <c r="S6" s="48"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
@@ -1662,15 +1792,15 @@
       <c r="E14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -1692,15 +1822,15 @@
       <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="21"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="65"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -1722,15 +1852,15 @@
       <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="21"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="65"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -1752,15 +1882,15 @@
       <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="21"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="65"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -1809,14 +1939,14 @@
       <c r="H19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="22" t="s">
+      <c r="J19" s="45"/>
+      <c r="K19" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="L19" s="24"/>
+      <c r="L19" s="45"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
@@ -1841,14 +1971,14 @@
       <c r="H20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="20" t="s">
+      <c r="J20" s="65"/>
+      <c r="K20" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="21"/>
+      <c r="L20" s="65"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
@@ -1873,14 +2003,14 @@
       <c r="H21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="20" t="s">
+      <c r="J21" s="65"/>
+      <c r="K21" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="21"/>
+      <c r="L21" s="65"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -1905,14 +2035,14 @@
       <c r="H22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="20" t="s">
+      <c r="J22" s="65"/>
+      <c r="K22" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="21"/>
+      <c r="L22" s="65"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -2113,10 +2243,10 @@
         <v>69</v>
       </c>
       <c r="B30" s="12"/>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -2497,942 +2627,632 @@
       <c r="R44" s="12"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="H46" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="I46" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="J46" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="K46" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="L46" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="M46" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="N46" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="O46" s="59" t="s">
+      <c r="D46" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="N46" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="O46" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="P46" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q46" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="R46" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="S46" s="56" t="s">
+      <c r="P46" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q46" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="R46" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="S46" s="31" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="50" t="s">
+      <c r="B47" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="51" t="s">
+      <c r="D47" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="51" t="s">
+      <c r="E47" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="51" t="s">
+      <c r="F47" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="H47" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="I47" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="J47" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="K47" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="L47" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="M47" s="51" t="s">
+      <c r="G47" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="L47" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="M47" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N47" s="52" t="s">
+      <c r="N47" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="O47" s="62" t="s">
+      <c r="O47" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="P47" s="63" t="s">
+      <c r="P47" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="Q47" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="R47" s="64" t="s">
+      <c r="Q47" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="R47" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="S47" s="57" t="s">
+      <c r="S47" s="32" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="51" t="s">
+      <c r="B48" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="51" t="s">
+      <c r="G48" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="51" t="s">
+      <c r="H48" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="51" t="s">
+      <c r="I48" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="K48" s="51" t="s">
+      <c r="J48" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="K48" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="L48" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="M48" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="N48" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="O48" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="P48" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q48" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="R48" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="S48" s="57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="H49" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="I49" s="51" t="s">
+      <c r="L48" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="N48" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="O48" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P48" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q48" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="R48" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="S48" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B49" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="51" t="s">
+      <c r="J49" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="51" t="s">
+      <c r="K49" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="51" t="s">
+      <c r="L49" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="M49" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="N49" s="52" t="s">
+      <c r="M49" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="N49" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O49" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="P49" s="63" t="s">
+      <c r="O49" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P49" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Q49" s="63" t="s">
+      <c r="Q49" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="R49" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="S49" s="57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="50" t="s">
+      <c r="R49" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="S49" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="51" t="s">
+      <c r="E50" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="51" t="s">
+      <c r="F50" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="51" t="s">
+      <c r="G50" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="51" t="s">
+      <c r="H50" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I50" s="51" t="s">
+      <c r="I50" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="51" t="s">
+      <c r="J50" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K50" s="51" t="s">
+      <c r="K50" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L50" s="51" t="s">
+      <c r="L50" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M50" s="51" t="s">
+      <c r="M50" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N50" s="52" t="s">
+      <c r="N50" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="O50" s="62" t="s">
+      <c r="O50" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="P50" s="63" t="s">
+      <c r="P50" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="Q50" s="63" t="s">
+      <c r="Q50" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="R50" s="64" t="s">
+      <c r="R50" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="S50" s="57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B51" s="45" t="s">
+      <c r="S50" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="50">
+      <c r="C51" s="25">
         <v>1</v>
       </c>
-      <c r="D51" s="51">
+      <c r="D51" s="26">
         <v>2</v>
       </c>
-      <c r="E51" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="51">
+      <c r="E51" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="26">
         <v>4</v>
       </c>
-      <c r="G51" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H51" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="I51" s="51">
+      <c r="G51" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" s="26">
         <v>6</v>
       </c>
-      <c r="J51" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="K51" s="51">
+      <c r="J51" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="26">
         <v>6</v>
       </c>
-      <c r="L51" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="M51" s="51" t="s">
+      <c r="L51" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N51" s="52">
+      <c r="N51" s="27">
         <v>10</v>
       </c>
-      <c r="O51" s="62" t="s">
+      <c r="O51" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="P51" s="63" t="s">
+      <c r="P51" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Q51" s="63" t="s">
+      <c r="Q51" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="R51" s="64" t="s">
+      <c r="R51" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="S51" s="57" t="s">
+      <c r="S51" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B52" s="45" t="s">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="50">
+      <c r="C52" s="25">
         <v>1</v>
       </c>
-      <c r="D52" s="51">
+      <c r="D52" s="26">
         <v>2</v>
       </c>
-      <c r="E52" s="51" t="s">
+      <c r="E52" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="51">
+      <c r="F52" s="26">
         <v>4</v>
       </c>
-      <c r="G52" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H52" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" s="51">
+      <c r="G52" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" s="26">
         <v>6</v>
       </c>
-      <c r="J52" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="K52" s="51">
+      <c r="J52" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="26">
         <v>6</v>
       </c>
-      <c r="L52" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="M52" s="51" t="s">
+      <c r="L52" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M52" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N52" s="52">
+      <c r="N52" s="27">
         <v>10</v>
       </c>
-      <c r="O52" s="62" t="s">
+      <c r="O52" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="63" t="s">
+      <c r="P52" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="Q52" s="63" t="s">
+      <c r="Q52" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="R52" s="64" t="s">
+      <c r="R52" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="S52" s="57" t="s">
+      <c r="S52" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="45" t="s">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="50">
+      <c r="C53" s="25">
         <v>1</v>
       </c>
-      <c r="D53" s="51">
+      <c r="D53" s="26">
         <v>2</v>
       </c>
-      <c r="E53" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="51">
+      <c r="E53" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="26">
         <v>4</v>
       </c>
-      <c r="G53" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="I53" s="51">
+      <c r="G53" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="26">
         <v>6</v>
       </c>
-      <c r="J53" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="K53" s="51">
+      <c r="J53" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="26">
         <v>6</v>
       </c>
-      <c r="L53" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="M53" s="51" t="s">
+      <c r="L53" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M53" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N53" s="52">
+      <c r="N53" s="27">
         <v>10</v>
       </c>
-      <c r="O53" s="62" t="s">
+      <c r="O53" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="P53" s="63" t="s">
+      <c r="P53" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Q53" s="63" t="s">
+      <c r="Q53" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="R53" s="64" t="s">
+      <c r="R53" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="S53" s="57" t="s">
+      <c r="S53" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="45" t="s">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="50">
+      <c r="C54" s="25">
         <v>1</v>
       </c>
-      <c r="D54" s="51">
+      <c r="D54" s="26">
         <v>2</v>
       </c>
-      <c r="E54" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="51">
+      <c r="E54" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="26">
         <v>4</v>
       </c>
-      <c r="G54" s="51" t="s">
+      <c r="G54" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H54" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" s="51">
+      <c r="H54" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="26">
         <v>6</v>
       </c>
-      <c r="J54" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="K54" s="51">
+      <c r="J54" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="26">
         <v>6</v>
       </c>
-      <c r="L54" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="M54" s="51" t="s">
+      <c r="L54" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M54" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N54" s="52">
+      <c r="N54" s="27">
         <v>10</v>
       </c>
-      <c r="O54" s="62" t="s">
+      <c r="O54" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="P54" s="63" t="s">
+      <c r="P54" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Q54" s="63" t="s">
+      <c r="Q54" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="R54" s="64" t="s">
+      <c r="R54" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="S54" s="57" t="s">
+      <c r="S54" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="45" t="s">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="25">
         <v>1</v>
       </c>
-      <c r="D55" s="51">
+      <c r="D55" s="26">
         <v>2</v>
       </c>
-      <c r="E55" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="51">
+      <c r="E55" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="26">
         <v>4</v>
       </c>
-      <c r="G55" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H55" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="I55" s="51">
+      <c r="G55" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" s="26">
         <v>6</v>
       </c>
-      <c r="J55" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="K55" s="51">
+      <c r="J55" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="26">
         <v>6</v>
       </c>
-      <c r="L55" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="M55" s="51" t="s">
+      <c r="L55" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M55" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N55" s="52">
+      <c r="N55" s="27">
         <v>10</v>
       </c>
-      <c r="O55" s="62" t="s">
+      <c r="O55" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="P55" s="63" t="s">
+      <c r="P55" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Q55" s="63" t="s">
+      <c r="Q55" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="R55" s="64" t="s">
+      <c r="R55" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="S55" s="57" t="s">
+      <c r="S55" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="46" t="s">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="53">
+      <c r="C56" s="28">
         <v>1</v>
       </c>
-      <c r="D56" s="54">
+      <c r="D56" s="29">
         <v>2</v>
       </c>
-      <c r="E56" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="54">
+      <c r="E56" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="29">
         <v>4</v>
       </c>
-      <c r="G56" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="H56" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="I56" s="54">
+      <c r="G56" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" s="29">
         <v>6</v>
       </c>
-      <c r="J56" s="54" t="s">
+      <c r="J56" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K56" s="54">
+      <c r="K56" s="29">
         <v>6</v>
       </c>
-      <c r="L56" s="54" t="s">
+      <c r="L56" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M56" s="54" t="s">
+      <c r="M56" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N56" s="55">
+      <c r="N56" s="30">
         <v>10</v>
       </c>
-      <c r="O56" s="65" t="s">
+      <c r="O56" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P56" s="66" t="s">
+      <c r="P56" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Q56" s="66" t="s">
+      <c r="Q56" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="R56" s="67" t="s">
+      <c r="R56" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S56" s="58" t="s">
+      <c r="S56" s="33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="24"/>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1">
-        <v>2</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="1">
-        <v>4</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I59" s="1">
-        <v>6</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K59" s="1">
-        <v>6</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="1">
-        <v>4</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I60" s="1">
-        <v>6</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K60" s="1">
-        <v>6</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="1">
-        <v>4</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I61" s="1">
-        <v>6</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K61" s="1">
-        <v>6</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>2</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="1">
-        <v>4</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I62" s="1">
-        <v>6</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K62" s="1">
-        <v>6</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="1">
-        <v>4</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I63" s="1">
-        <v>6</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K63" s="1">
-        <v>6</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1">
-        <v>2</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F64" s="1">
-        <v>4</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I64" s="1">
-        <v>6</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K64" s="1">
-        <v>6</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B58:R58"/>
-    <mergeCell ref="S2:S6"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="H4:H5"/>
+  <mergeCells count="31">
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="M3:M5"/>
     <mergeCell ref="I4:J4"/>
@@ -3449,13 +3269,28 @@
     <mergeCell ref="F15:L15"/>
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="F17:L17"/>
+    <mergeCell ref="S2:S6"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3465,11 +3300,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="F1" t="s">
         <v>51</v>
       </c>
@@ -3478,10 +3313,10 @@
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="68"/>
       <c r="E8" t="s">
         <v>53</v>
       </c>
@@ -3513,4 +3348,288 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="70"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="N4" s="73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="70"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="70"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="L6" s="73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="70"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="70"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="70"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="70"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="70"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="70"/>
+      <c r="C12" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="D12:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ut_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC77F782-B6FF-4DBB-8E73-467F1155867F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="780" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="141">
   <si>
     <t>#</t>
   </si>
@@ -184,21 +185,6 @@
   </si>
   <si>
     <t>var_ghi</t>
-  </si>
-  <si>
-    <t>This is merged cell</t>
-  </si>
-  <si>
-    <t>This is cell</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
   <si>
     <t>obj</t>
@@ -480,12 +466,21 @@
   </si>
   <si>
     <t>tuple</t>
+  </si>
+  <si>
+    <t>Input factor range = inpfac_range = ["Input factor col" : "Output element col" - 1]</t>
+  </si>
+  <si>
+    <t>Output element range = outele_range = ["Output element col" : "Judgment col" - 1]</t>
+  </si>
+  <si>
+    <t>Judgment = jud_col</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -714,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -840,15 +835,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -857,6 +847,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -888,61 +893,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,11 +1213,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:S12"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,109 +1245,109 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="46" t="s">
-        <v>99</v>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="47" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="49" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="47"/>
+      <c r="S3" s="48"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="49" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="59" t="s">
+      <c r="J4" s="52"/>
+      <c r="K4" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="47"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="48"/>
     </row>
     <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1369,22 +1360,22 @@
       <c r="L5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="51"/>
+      <c r="M5" s="57"/>
       <c r="N5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="51"/>
+      <c r="O5" s="57"/>
       <c r="P5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="51"/>
-      <c r="S5" s="47"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="48"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1433,7 +1424,7 @@
       <c r="R6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="48"/>
+      <c r="S6" s="49"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
@@ -1447,28 +1438,28 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3">
         <v>4</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I7" s="3">
         <v>6</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K7" s="3">
         <v>6</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>11</v>
@@ -1490,7 +1481,7 @@
         <v>11</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1511,22 +1502,22 @@
         <v>4</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I8" s="3">
         <v>6</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K8" s="3">
         <v>6</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>11</v>
@@ -1547,7 +1538,7 @@
         <v>17</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1562,28 +1553,28 @@
         <v>2</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I9" s="3">
         <v>6</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K9" s="3">
         <v>6</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>11</v>
@@ -1604,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1619,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3">
         <v>4</v>
@@ -1628,19 +1619,19 @@
         <v>7</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I10" s="3">
         <v>6</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K10" s="3">
         <v>6</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>11</v>
@@ -1661,7 +1652,7 @@
         <v>17</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1676,28 +1667,28 @@
         <v>2</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3">
         <v>4</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I11" s="3">
         <v>6</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K11" s="3">
         <v>6</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>11</v>
@@ -1718,7 +1709,7 @@
         <v>11</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1733,16 +1724,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3">
         <v>4</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I12" s="3">
         <v>6</v>
@@ -1775,32 +1766,32 @@
         <v>17</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
+        <v>50</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="69"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -1822,15 +1813,15 @@
       <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="65"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -1852,15 +1843,15 @@
       <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="65"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -1882,15 +1873,15 @@
       <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="65"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="66"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -1900,7 +1891,7 @@
     </row>
     <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1924,29 +1915,29 @@
     </row>
     <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19" s="45"/>
+        <v>50</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="69"/>
+      <c r="K19" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="69"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
@@ -1971,14 +1962,14 @@
       <c r="H20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="64" t="s">
+      <c r="I20" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="64" t="s">
+      <c r="J20" s="66"/>
+      <c r="K20" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="65"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
@@ -2003,14 +1994,14 @@
       <c r="H21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="64" t="s">
+      <c r="I21" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="65"/>
-      <c r="K21" s="64" t="s">
+      <c r="J21" s="66"/>
+      <c r="K21" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="65"/>
+      <c r="L21" s="66"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -2035,14 +2026,14 @@
       <c r="H22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="I22" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="65"/>
-      <c r="K22" s="64" t="s">
+      <c r="J22" s="66"/>
+      <c r="K22" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="65"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -2052,7 +2043,7 @@
     </row>
     <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
@@ -2069,16 +2060,16 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
@@ -2088,16 +2079,16 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -2198,7 +2189,7 @@
     </row>
     <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
@@ -2240,13 +2231,13 @@
     </row>
     <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B30" s="12"/>
-      <c r="C30" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="65"/>
+      <c r="C30" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="66"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -2284,7 +2275,7 @@
     </row>
     <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="10" t="s">
@@ -2320,40 +2311,40 @@
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q32" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R32" s="12"/>
     </row>
     <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
@@ -2364,28 +2355,28 @@
     </row>
     <row r="34" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
@@ -2396,32 +2387,32 @@
     </row>
     <row r="35" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="I35" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="J35" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -2432,7 +2423,7 @@
     </row>
     <row r="36" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2445,18 +2436,18 @@
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q36" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R36" s="12"/>
     </row>
@@ -2476,13 +2467,13 @@
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P37" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q37" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R37" s="12"/>
     </row>
@@ -2634,57 +2625,57 @@
         <v>1</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O46" s="34" t="s">
         <v>2</v>
       </c>
       <c r="P46" s="35" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q46" s="35" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R46" s="36" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="S46" s="31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>3</v>
@@ -2699,57 +2690,57 @@
         <v>12</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L47" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M47" s="26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N47" s="27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O47" s="37" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P47" s="38" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q47" s="38" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R47" s="39" t="s">
         <v>5</v>
       </c>
       <c r="S47" s="32" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F48" s="26" t="s">
         <v>13</v>
@@ -2764,57 +2755,57 @@
         <v>18</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K48" s="26" t="s">
         <v>41</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M48" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N48" s="27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O48" s="37" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P48" s="38" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q48" s="38" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R48" s="39" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="S48" s="32" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I49" s="26" t="s">
         <v>15</v>
@@ -2829,13 +2820,13 @@
         <v>43</v>
       </c>
       <c r="M49" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N49" s="27" t="s">
         <v>19</v>
       </c>
       <c r="O49" s="37" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P49" s="38" t="s">
         <v>23</v>
@@ -2844,18 +2835,18 @@
         <v>24</v>
       </c>
       <c r="R49" s="39" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="S49" s="32" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>8</v>
@@ -2906,15 +2897,15 @@
         <v>8</v>
       </c>
       <c r="S50" s="32" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C51" s="25">
         <v>1</v>
@@ -2923,28 +2914,28 @@
         <v>2</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F51" s="26">
         <v>4</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I51" s="26">
         <v>6</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K51" s="26">
         <v>6</v>
       </c>
       <c r="L51" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M51" s="26" t="s">
         <v>11</v>
@@ -2965,12 +2956,12 @@
         <v>11</v>
       </c>
       <c r="S51" s="32" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C52" s="25">
         <v>1</v>
@@ -2985,22 +2976,22 @@
         <v>4</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I52" s="26">
         <v>6</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K52" s="26">
         <v>6</v>
       </c>
       <c r="L52" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M52" s="26" t="s">
         <v>11</v>
@@ -3021,12 +3012,12 @@
         <v>17</v>
       </c>
       <c r="S52" s="32" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C53" s="25">
         <v>1</v>
@@ -3035,28 +3026,28 @@
         <v>2</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F53" s="26">
         <v>4</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I53" s="26">
         <v>6</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K53" s="26">
         <v>6</v>
       </c>
       <c r="L53" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M53" s="26" t="s">
         <v>11</v>
@@ -3077,12 +3068,12 @@
         <v>11</v>
       </c>
       <c r="S53" s="32" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C54" s="25">
         <v>1</v>
@@ -3091,7 +3082,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F54" s="26">
         <v>4</v>
@@ -3100,19 +3091,19 @@
         <v>7</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I54" s="26">
         <v>6</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K54" s="26">
         <v>6</v>
       </c>
       <c r="L54" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M54" s="26" t="s">
         <v>11</v>
@@ -3133,12 +3124,12 @@
         <v>17</v>
       </c>
       <c r="S54" s="32" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B55" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C55" s="25">
         <v>1</v>
@@ -3147,28 +3138,28 @@
         <v>2</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F55" s="26">
         <v>4</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I55" s="26">
         <v>6</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K55" s="26">
         <v>6</v>
       </c>
       <c r="L55" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M55" s="26" t="s">
         <v>11</v>
@@ -3189,15 +3180,15 @@
         <v>11</v>
       </c>
       <c r="S55" s="32" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C56" s="28">
         <v>1</v>
@@ -3206,16 +3197,16 @@
         <v>2</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F56" s="29">
         <v>4</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I56" s="29">
         <v>6</v>
@@ -3248,14 +3239,26 @@
         <v>17</v>
       </c>
       <c r="S56" s="33" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="F14:L14"/>
     <mergeCell ref="I19:J19"/>
@@ -3284,78 +3287,20 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C8:D8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,250 +3320,250 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="78"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="N4" s="43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="78"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="78"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="78"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="78"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="78"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="78"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="78"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="78"/>
+      <c r="C12" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="78"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="79"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="77" t="s">
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="77" t="s">
+      <c r="D16" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="78" t="s">
+      <c r="F16" s="44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" s="77" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="70"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="N4" s="73" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="70"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" s="77" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="70"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="L6" s="73" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="70"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="L7" s="73" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="70"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="70"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="70"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ut_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC77F782-B6FF-4DBB-8E73-467F1155867F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="780" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="153">
   <si>
     <t>#</t>
   </si>
@@ -468,19 +466,55 @@
     <t>tuple</t>
   </si>
   <si>
-    <t>Input factor range = inpfac_range = ["Input factor col" : "Output element col" - 1]</t>
-  </si>
-  <si>
-    <t>Output element range = outele_range = ["Output element col" : "Judgment col" - 1]</t>
-  </si>
-  <si>
-    <t>Judgment = jud_col</t>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>[a]</t>
+  </si>
+  <si>
+    <t>uitn32_t</t>
+  </si>
+  <si>
+    <t>is_pointer</t>
+  </si>
+  <si>
+    <t>is_structure</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>["var_abc"]</t>
+  </si>
+  <si>
+    <t>[&lt;obj var4&gt;, &lt;obj var5&gt;, &lt;obj var_def&gt;, &lt;obj var_def&gt;, &lt;obj var_ghi&gt;]</t>
+  </si>
+  <si>
+    <t>[&lt;obj var6&gt;, &lt;obj var7&gt;]</t>
+  </si>
+  <si>
+    <t>[&lt;obj var8&gt;, &lt;obj var9&gt;]</t>
+  </si>
+  <si>
+    <t>["var_def"]</t>
+  </si>
+  <si>
+    <t>['var_ghi"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,7 +524,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,18 +551,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -625,91 +653,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -726,15 +674,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -763,82 +705,28 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -848,6 +736,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -856,60 +762,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -933,6 +785,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,11 +1122,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,109 +1154,115 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="58" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="47" t="s">
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="27" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="55" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="P3" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="55" t="s">
+      <c r="Q3" s="65"/>
+      <c r="R3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="48"/>
+      <c r="S3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="55" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="50" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="48"/>
-    </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="48"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="31"/>
+      <c r="S4" s="28"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1360,22 +1275,16 @@
       <c r="L5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="57"/>
-      <c r="P5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="57"/>
-      <c r="S5" s="48"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="28"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1394,10 +1303,10 @@
       <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1412,10 +1321,10 @@
       <c r="N6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="4" t="s">
@@ -1424,7 +1333,7 @@
       <c r="R6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="49"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
@@ -1443,22 +1352,22 @@
       <c r="F7" s="3">
         <v>4</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="G7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="3">
         <v>6</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="8" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="3">
         <v>6</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -1480,7 +1389,7 @@
       <c r="R7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1501,22 +1410,22 @@
       <c r="F8" s="3">
         <v>4</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I8" s="3">
         <v>6</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="8" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="3">
         <v>6</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -1525,7 +1434,7 @@
       <c r="N8" s="3">
         <v>10</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="P8" s="3" t="s">
@@ -1537,7 +1446,7 @@
       <c r="R8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="17" t="s">
+      <c r="S8" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1552,28 +1461,28 @@
       <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="3">
         <v>6</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="8" t="s">
         <v>51</v>
       </c>
       <c r="K9" s="3">
         <v>6</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -1594,7 +1503,7 @@
       <c r="R9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="17" t="s">
+      <c r="S9" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1609,7 +1518,7 @@
       <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="3">
@@ -1618,19 +1527,19 @@
       <c r="G10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I10" s="3">
         <v>6</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="8" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="3">
         <v>6</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -1642,16 +1551,16 @@
       <c r="O10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="11" t="s">
+      <c r="P10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="17" t="s">
+      <c r="S10" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1666,28 +1575,28 @@
       <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="3">
         <v>4</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I11" s="3">
         <v>6</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="8" t="s">
         <v>51</v>
       </c>
       <c r="K11" s="3">
         <v>6</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -1708,7 +1617,7 @@
       <c r="R11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="17" t="s">
+      <c r="S11" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1723,16 +1632,16 @@
       <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="3">
@@ -1765,45 +1674,45 @@
       <c r="R12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="17" t="s">
+      <c r="S12" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
     </row>
     <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1813,27 +1722,27 @@
       <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1843,27 +1752,27 @@
       <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
@@ -1873,86 +1782,86 @@
       <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="17" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="9" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="67" t="s">
+      <c r="I19" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="69"/>
-      <c r="K19" s="67" t="s">
+      <c r="J19" s="25"/>
+      <c r="K19" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="69"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
     </row>
     <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1962,29 +1871,29 @@
       <c r="H20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="65" t="s">
+      <c r="I20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="66"/>
-      <c r="K20" s="65" t="s">
+      <c r="J20" s="22"/>
+      <c r="K20" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="66"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
     </row>
     <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="3" t="s">
         <v>30</v>
       </c>
@@ -1994,120 +1903,120 @@
       <c r="H21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="65" t="s">
+      <c r="I21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="65" t="s">
+      <c r="J21" s="22"/>
+      <c r="K21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="66"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
     </row>
     <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="17" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="65" t="s">
+      <c r="J22" s="22"/>
+      <c r="K22" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="66"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
     </row>
     <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="17" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="Q23" s="17" t="s">
+      <c r="Q23" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="10"/>
     </row>
     <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="9" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="3" t="s">
         <v>15</v>
       </c>
@@ -2120,24 +2029,24 @@
       <c r="L25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
     </row>
     <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="3" t="s">
         <v>30</v>
       </c>
@@ -2150,24 +2059,24 @@
       <c r="L26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
     </row>
     <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="3" t="s">
         <v>39</v>
       </c>
@@ -2180,1085 +2089,1868 @@
       <c r="L27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
     </row>
     <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
     </row>
     <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
     </row>
     <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="65" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
     </row>
     <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
     </row>
     <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="17" t="s">
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="P32" s="17" t="s">
+      <c r="P32" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="Q32" s="17" t="s">
+      <c r="Q32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="10"/>
     </row>
     <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="10" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="10" t="s">
+      <c r="F33" s="11"/>
+      <c r="G33" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="10" t="s">
+      <c r="I33" s="11"/>
+      <c r="J33" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="10" t="s">
+      <c r="K33" s="11"/>
+      <c r="L33" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
     </row>
     <row r="34" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="15" t="s">
+      <c r="I34" s="11"/>
+      <c r="J34" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="14" t="s">
+      <c r="K34" s="11"/>
+      <c r="L34" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
     </row>
     <row r="35" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="L35" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
     </row>
     <row r="36" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="14" t="s">
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="P36" s="14" t="s">
+      <c r="P36" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="Q36" s="14" t="s">
+      <c r="Q36" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="R36" s="12"/>
+      <c r="R36" s="10"/>
     </row>
     <row r="37" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="14" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="P37" s="14" t="s">
+      <c r="P37" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="Q37" s="14" t="s">
+      <c r="Q37" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="R37" s="12"/>
+      <c r="R37" s="10"/>
     </row>
     <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
     </row>
     <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
     </row>
     <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
     </row>
     <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
     </row>
     <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
     </row>
     <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
     </row>
     <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="19" t="s">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C47" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="J46" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="L46" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="M46" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="N46" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="O46" s="34" t="s">
+      <c r="D47" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="J47" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="L47" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="M47" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="N47" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="O47" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="P46" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q46" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="R46" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="S46" s="31" t="s">
+      <c r="P47" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q47" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="R47" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="S47" s="48" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="25" t="s">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="48"/>
+      <c r="C48" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="48"/>
+      <c r="C49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="48"/>
+      <c r="C50" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="48"/>
+      <c r="C52" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="48"/>
+      <c r="C53" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="48"/>
+      <c r="C54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="48"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="58"/>
+      <c r="K55" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="58"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="48"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" s="58"/>
+      <c r="K56" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="L56" s="58"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="48"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="H57" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="I57" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="J57" s="58"/>
+      <c r="K57" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="L57" s="58"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="48"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="I58" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="J58" s="58"/>
+      <c r="K58" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="L58" s="58"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="48"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="48"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="H59" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I59" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="J59" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="K59" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="L59" s="58"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="48"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="48"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H60" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="I60" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="J60" s="58"/>
+      <c r="K60" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="L60" s="58"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
+      <c r="S60" s="48"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="48"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="48"/>
+      <c r="S61" s="48"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="48"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="K62" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L62" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="48"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="48"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="K63" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="L63" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="48"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="48"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="J64" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="K64" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="L64" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="48"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="48"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="48"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="J65" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="K65" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="L65" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="48"/>
+      <c r="S65" s="48"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="48"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="J66" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="K66" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="L66" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="M66" s="48"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="48"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="48"/>
+      <c r="S66" s="48"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="48"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
+      <c r="O67" s="63"/>
+      <c r="P67" s="63"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="48"/>
+    </row>
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="48"/>
+      <c r="B68" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="G68" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="H68" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="I68" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="J68" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="K68" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="L68" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="M68" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="N68" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="O68" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="P68" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q68" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="R68" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="S68" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="48"/>
+      <c r="B69" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D69" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E69" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F69" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I47" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="J47" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="K47" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="L47" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="M47" s="26" t="s">
+      <c r="G69" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="H69" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="J69" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="K69" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="L69" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="M69" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="N47" s="27" t="s">
+      <c r="N69" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="O47" s="37" t="s">
+      <c r="O69" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="P47" s="38" t="s">
+      <c r="P69" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="Q47" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="R47" s="39" t="s">
+      <c r="Q69" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="R69" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="S47" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="26" t="s">
+      <c r="S69" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="48"/>
+      <c r="B70" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G70" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H70" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="I70" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="K48" s="26" t="s">
+      <c r="J70" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="K70" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="L48" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="M48" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="O48" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="P48" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q48" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="R48" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="S48" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I49" s="26" t="s">
+      <c r="L70" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="M70" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="N70" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="O70" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="P70" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q70" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="R70" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="S70" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="48"/>
+      <c r="B71" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="G71" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="H71" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="I71" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="26" t="s">
+      <c r="J71" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="26" t="s">
+      <c r="K71" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="26" t="s">
+      <c r="L71" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="M49" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="N49" s="27" t="s">
+      <c r="M71" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="N71" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="O49" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="P49" s="38" t="s">
+      <c r="O71" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="P71" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q49" s="38" t="s">
+      <c r="Q71" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="R49" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="S49" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="R71" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="S71" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="48"/>
+      <c r="B72" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="P72" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q72" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="R72" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="K50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="M50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N50" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="O50" s="37" t="s">
+      <c r="B73" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="L73" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="M73" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="N73" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="O73" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="P50" s="38" t="s">
+      <c r="P73" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="Q50" s="38" t="s">
+      <c r="Q73" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="R50" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="S50" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="R73" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="S73" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B74" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C74" s="48">
         <v>1</v>
       </c>
-      <c r="D51" s="26">
+      <c r="D74" s="48">
         <v>2</v>
       </c>
-      <c r="E51" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="26">
+      <c r="E74" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" s="48">
         <v>4</v>
       </c>
-      <c r="G51" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H51" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="I51" s="26">
+      <c r="G74" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H74" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" s="48">
         <v>6</v>
       </c>
-      <c r="J51" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K51" s="26">
+      <c r="J74" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="K74" s="48">
         <v>6</v>
       </c>
-      <c r="L51" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="M51" s="26" t="s">
+      <c r="L74" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="M74" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N51" s="27">
+      <c r="N74" s="48">
         <v>10</v>
       </c>
-      <c r="O51" s="37" t="s">
+      <c r="O74" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="P51" s="38" t="s">
+      <c r="P74" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="Q51" s="38" t="s">
+      <c r="Q74" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="R51" s="39" t="s">
+      <c r="R74" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="S51" s="32" t="s">
+      <c r="S74" s="48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B52" s="20" t="s">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B75" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C75" s="48">
         <v>1</v>
       </c>
-      <c r="D52" s="26">
+      <c r="D75" s="48">
         <v>2</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E75" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="26">
+      <c r="F75" s="48">
         <v>4</v>
       </c>
-      <c r="G52" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" s="26">
+      <c r="G75" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75" s="48">
         <v>6</v>
       </c>
-      <c r="J52" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K52" s="26">
+      <c r="J75" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="K75" s="48">
         <v>6</v>
       </c>
-      <c r="L52" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="M52" s="26" t="s">
+      <c r="L75" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="M75" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N52" s="27">
+      <c r="N75" s="48">
         <v>10</v>
       </c>
-      <c r="O52" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="38" t="s">
+      <c r="O75" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="P75" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="Q52" s="38" t="s">
+      <c r="Q75" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="R52" s="39" t="s">
+      <c r="R75" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S52" s="32" t="s">
+      <c r="S75" s="48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="20" t="s">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B76" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C76" s="48">
         <v>1</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D76" s="48">
         <v>2</v>
       </c>
-      <c r="E53" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" s="26">
+      <c r="E76" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="48">
         <v>4</v>
       </c>
-      <c r="G53" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="I53" s="26">
+      <c r="G76" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H76" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76" s="48">
         <v>6</v>
       </c>
-      <c r="J53" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K53" s="26">
+      <c r="J76" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="K76" s="48">
         <v>6</v>
       </c>
-      <c r="L53" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="M53" s="26" t="s">
+      <c r="L76" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="M76" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N53" s="27">
+      <c r="N76" s="48">
         <v>10</v>
       </c>
-      <c r="O53" s="37" t="s">
+      <c r="O76" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="P53" s="38" t="s">
+      <c r="P76" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="Q53" s="38" t="s">
+      <c r="Q76" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="R53" s="39" t="s">
+      <c r="R76" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="S53" s="32" t="s">
+      <c r="S76" s="48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B77" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="25">
+      <c r="C77" s="48">
         <v>1</v>
       </c>
-      <c r="D54" s="26">
+      <c r="D77" s="48">
         <v>2</v>
       </c>
-      <c r="E54" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="26">
+      <c r="E77" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" s="48">
         <v>4</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G77" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H54" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="I54" s="26">
+      <c r="H77" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I77" s="48">
         <v>6</v>
       </c>
-      <c r="J54" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K54" s="26">
+      <c r="J77" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="K77" s="48">
         <v>6</v>
       </c>
-      <c r="L54" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="M54" s="26" t="s">
+      <c r="L77" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="M77" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N54" s="27">
+      <c r="N77" s="48">
         <v>10</v>
       </c>
-      <c r="O54" s="37" t="s">
+      <c r="O77" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="P54" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="R54" s="39" t="s">
+      <c r="P77" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q77" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="R77" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S54" s="32" t="s">
+      <c r="S77" s="48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B78" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="25">
+      <c r="C78" s="48">
         <v>1</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D78" s="48">
         <v>2</v>
       </c>
-      <c r="E55" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F55" s="26">
+      <c r="E78" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="48">
         <v>4</v>
       </c>
-      <c r="G55" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="I55" s="26">
+      <c r="G78" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H78" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I78" s="48">
         <v>6</v>
       </c>
-      <c r="J55" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K55" s="26">
+      <c r="J78" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="K78" s="48">
         <v>6</v>
       </c>
-      <c r="L55" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="M55" s="26" t="s">
+      <c r="L78" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="M78" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N55" s="27">
+      <c r="N78" s="48">
         <v>10</v>
       </c>
-      <c r="O55" s="37" t="s">
+      <c r="O78" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="P55" s="38" t="s">
+      <c r="P78" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="Q55" s="38" t="s">
+      <c r="Q78" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="R55" s="39" t="s">
+      <c r="R78" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="S55" s="32" t="s">
+      <c r="S78" s="48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B79" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C79" s="48">
         <v>1</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D79" s="48">
         <v>2</v>
       </c>
-      <c r="E56" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F56" s="29">
+      <c r="E79" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="48">
         <v>4</v>
       </c>
-      <c r="G56" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H56" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I56" s="29">
+      <c r="G79" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H79" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I79" s="48">
         <v>6</v>
       </c>
-      <c r="J56" s="29" t="s">
+      <c r="J79" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K56" s="29">
+      <c r="K79" s="48">
         <v>6</v>
       </c>
-      <c r="L56" s="29" t="s">
+      <c r="L79" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="M56" s="29" t="s">
+      <c r="M79" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N56" s="30">
+      <c r="N79" s="48">
         <v>10</v>
       </c>
-      <c r="O56" s="40" t="s">
+      <c r="O79" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="P56" s="41" t="s">
+      <c r="P79" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="Q56" s="41" t="s">
+      <c r="Q79" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="R56" s="42" t="s">
+      <c r="R79" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S56" s="33" t="s">
+      <c r="S79" s="48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C58" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C59" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="50">
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="F53:L53"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="F52:L52"/>
+    <mergeCell ref="F54:L54"/>
+    <mergeCell ref="F48:L48"/>
+    <mergeCell ref="F49:L49"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="F51:L51"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="S2:S6"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="F14:L14"/>
     <mergeCell ref="I19:J19"/>
@@ -3272,34 +3964,17 @@
     <mergeCell ref="F15:L15"/>
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="F17:L17"/>
-    <mergeCell ref="S2:S6"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -3307,263 +3982,263 @@
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="45" t="s">
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="78"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="43" t="s">
+    <row r="4" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="46"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="N4" s="43" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="N4" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="43" t="s">
+    <row r="5" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="46"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="78"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="43" t="s">
+    <row r="6" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="46"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="78"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="43" t="s">
+    <row r="7" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="46"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="L7" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="78"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="43" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="78"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="43" t="s">
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="46"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="78"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="43" t="s">
+    <row r="10" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="46"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="17" t="s">
         <v>118</v>
       </c>
       <c r="L10"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="78"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="43" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="78"/>
-      <c r="C12" s="74" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="78"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="43" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="79"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="43" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ut_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7D9D96-8CEF-4A9F-AAF6-E64A38DE6AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="780" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="153">
   <si>
     <t>#</t>
   </si>
@@ -514,7 +515,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -709,6 +710,99 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -726,42 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -786,62 +844,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,11 +1129,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,115 +1161,115 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="33" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="27" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="40" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="64" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="66" t="s">
+      <c r="O3" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="65" t="s">
+      <c r="P3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="30" t="s">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="28"/>
+      <c r="S3" s="41"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="30" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="36" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="66" t="s">
+      <c r="L4" s="45"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66" t="s">
+      <c r="O4" s="51"/>
+      <c r="P4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="31"/>
-      <c r="S4" s="28"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="41"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1275,16 +1282,16 @@
       <c r="L5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="28"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="41"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1340,7 @@
       <c r="R6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="29"/>
+      <c r="S6" s="42"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
@@ -1692,15 +1699,15 @@
       <c r="E14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -1722,15 +1729,15 @@
       <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="22"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="53"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -1752,15 +1759,15 @@
       <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="22"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="53"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -1782,15 +1789,15 @@
       <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="22"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="53"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -1839,14 +1846,14 @@
       <c r="H19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="23" t="s">
+      <c r="J19" s="56"/>
+      <c r="K19" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="25"/>
+      <c r="L19" s="56"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -1871,14 +1878,14 @@
       <c r="H20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="21" t="s">
+      <c r="J20" s="53"/>
+      <c r="K20" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="22"/>
+      <c r="L20" s="53"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -1903,14 +1910,14 @@
       <c r="H21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="21" t="s">
+      <c r="J21" s="53"/>
+      <c r="K21" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="53"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -1935,14 +1942,14 @@
       <c r="H22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="21" t="s">
+      <c r="J22" s="53"/>
+      <c r="K22" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="22"/>
+      <c r="L22" s="53"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -2143,10 +2150,10 @@
         <v>64</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="22"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -2547,58 +2554,58 @@
       <c r="R45" s="10"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="H47" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="I47" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="J47" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="K47" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="L47" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="M47" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="N47" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="O47" s="48" t="s">
+      <c r="D47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="M47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="N47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O47" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="P47" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q47" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="R47" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="S47" s="48" t="s">
+      <c r="P47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="R47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="S47" s="21" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2606,7 +2613,7 @@
       <c r="A48" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="48"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="6" t="s">
         <v>139</v>
       </c>
@@ -2616,28 +2623,28 @@
       <c r="E48" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="48"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="48"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="6" t="s">
         <v>30</v>
       </c>
@@ -2647,28 +2654,28 @@
       <c r="E49" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="48"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="48"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="6" t="s">
         <v>33</v>
       </c>
@@ -2678,28 +2685,28 @@
       <c r="E50" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="48"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="48"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="5" t="s">
         <v>143</v>
       </c>
@@ -2709,28 +2716,28 @@
       <c r="E51" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="51" t="s">
+      <c r="F51" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="48"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="48"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="5" t="s">
         <v>143</v>
       </c>
@@ -2740,28 +2747,28 @@
       <c r="E52" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F52" s="51" t="s">
+      <c r="F52" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="48"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="48"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="5" t="s">
         <v>102</v>
       </c>
@@ -2771,28 +2778,28 @@
       <c r="E53" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="48"/>
+      <c r="F53" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="48"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="5" t="s">
         <v>102</v>
       </c>
@@ -2802,32 +2809,32 @@
       <c r="E54" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="48"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="56" t="s">
+      <c r="B55" s="21"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="24" t="s">
         <v>30</v>
       </c>
       <c r="G55" s="14" t="s">
@@ -2836,31 +2843,31 @@
       <c r="H55" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I55" s="57" t="s">
+      <c r="I55" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J55" s="58"/>
-      <c r="K55" s="57" t="s">
+      <c r="J55" s="32"/>
+      <c r="K55" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="L55" s="58"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="48"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="56" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="24" t="s">
         <v>36</v>
       </c>
       <c r="G56" s="14" t="s">
@@ -2869,645 +2876,643 @@
       <c r="H56" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I56" s="57" t="s">
+      <c r="I56" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J56" s="58"/>
-      <c r="K56" s="57" t="s">
+      <c r="J56" s="32"/>
+      <c r="K56" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="L56" s="58"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="48"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="55" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G57" s="55" t="s">
+      <c r="G57" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="H57" s="55" t="s">
+      <c r="H57" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="I57" s="57" t="s">
+      <c r="I57" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="J57" s="58"/>
-      <c r="K57" s="57" t="s">
+      <c r="J57" s="32"/>
+      <c r="K57" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="L57" s="58"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="48"/>
-      <c r="S57" s="48"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="55" t="s">
+      <c r="B58" s="21"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G58" s="55" t="s">
+      <c r="G58" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="H58" s="55" t="s">
+      <c r="H58" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="I58" s="57" t="s">
+      <c r="I58" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="J58" s="58"/>
-      <c r="K58" s="57" t="s">
+      <c r="J58" s="32"/>
+      <c r="K58" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="L58" s="58"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="48"/>
-      <c r="S58" s="48"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="55" t="s">
+      <c r="B59" s="21"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="G59" s="55" t="s">
+      <c r="G59" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="H59" s="55" t="s">
+      <c r="H59" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="I59" s="55" t="s">
+      <c r="I59" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="J59" s="55" t="s">
+      <c r="J59" s="68"/>
+      <c r="K59" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="K59" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="L59" s="58"/>
-      <c r="M59" s="48"/>
-      <c r="N59" s="48"/>
-      <c r="O59" s="48"/>
-      <c r="P59" s="48"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="48"/>
-      <c r="S59" s="48"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="H60" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="I60" s="57" t="s">
+      <c r="B60" s="21"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I60" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="J60" s="58"/>
-      <c r="K60" s="57" t="s">
+      <c r="J60" s="32"/>
+      <c r="K60" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="L60" s="58"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="48"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="48"/>
-      <c r="S60" s="48"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="60" t="s">
+      <c r="B61" s="21"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J61" s="60" t="s">
+      <c r="J61" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K61" s="60" t="s">
+      <c r="K61" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L61" s="60" t="s">
+      <c r="L61" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="48"/>
-      <c r="P61" s="48"/>
-      <c r="Q61" s="48"/>
-      <c r="R61" s="48"/>
-      <c r="S61" s="48"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="50" t="s">
+      <c r="A62" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="60" t="s">
+      <c r="B62" s="21"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J62" s="60" t="s">
+      <c r="J62" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="K62" s="60" t="s">
+      <c r="K62" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="L62" s="60" t="s">
+      <c r="L62" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="M62" s="48"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
-      <c r="Q62" s="48"/>
-      <c r="R62" s="48"/>
-      <c r="S62" s="48"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="59" t="s">
+      <c r="B63" s="21"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="J63" s="59" t="s">
+      <c r="J63" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="K63" s="59" t="s">
+      <c r="K63" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="L63" s="59" t="s">
+      <c r="L63" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="48"/>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="48"/>
-      <c r="R63" s="48"/>
-      <c r="S63" s="48"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="59" t="s">
+      <c r="B64" s="21"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="J64" s="59" t="s">
+      <c r="J64" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="K64" s="59" t="s">
+      <c r="K64" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="L64" s="59" t="s">
+      <c r="L64" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="M64" s="48"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="48"/>
-      <c r="P64" s="48"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="48"/>
-      <c r="S64" s="48"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B65" s="48"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="60" t="s">
+      <c r="B65" s="21"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="J65" s="60" t="s">
+      <c r="J65" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="K65" s="60" t="s">
+      <c r="K65" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="L65" s="60" t="s">
+      <c r="L65" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="M65" s="48"/>
-      <c r="N65" s="48"/>
-      <c r="O65" s="48"/>
-      <c r="P65" s="48"/>
-      <c r="Q65" s="48"/>
-      <c r="R65" s="48"/>
-      <c r="S65" s="48"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="J66" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="K66" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="L66" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="48"/>
-      <c r="P66" s="48"/>
-      <c r="Q66" s="48"/>
-      <c r="R66" s="48"/>
-      <c r="S66" s="48"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J66" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="K66" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="L66" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="63"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="48"/>
-      <c r="S67" s="48"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
     </row>
     <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48" t="s">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="61" t="s">
+      <c r="C68" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="F68" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="G68" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="H68" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="I68" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="J68" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="K68" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="L68" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="M68" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="N68" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="O68" s="63" t="s">
+      <c r="D68" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I68" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J68" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="L68" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="M68" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N68" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="O68" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="P68" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q68" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="R68" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="S68" s="48" t="s">
+      <c r="P68" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q68" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="R68" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="S68" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="61" t="s">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="61" t="s">
+      <c r="D69" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E69" s="61" t="s">
+      <c r="E69" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F69" s="62" t="s">
+      <c r="F69" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="H69" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="I69" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="J69" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="K69" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="L69" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="M69" s="63" t="s">
+      <c r="G69" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J69" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="K69" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="L69" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="M69" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="N69" s="63" t="s">
+      <c r="N69" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="O69" s="63" t="s">
+      <c r="O69" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P69" s="63" t="s">
+      <c r="P69" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="Q69" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="R69" s="48" t="s">
+      <c r="Q69" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="R69" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="S69" s="48" t="s">
+      <c r="S69" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
-      <c r="B70" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="F70" s="62" t="s">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G70" s="63" t="s">
+      <c r="G70" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="63" t="s">
+      <c r="H70" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I70" s="63" t="s">
+      <c r="I70" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J70" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="K70" s="63" t="s">
+      <c r="J70" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="K70" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="L70" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="M70" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="N70" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="O70" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="P70" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q70" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="R70" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="S70" s="48" t="s">
+      <c r="L70" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="M70" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N70" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="O70" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="P70" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q70" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="R70" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="S70" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="F71" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="G71" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="H71" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="I71" s="63" t="s">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G71" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I71" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="63" t="s">
+      <c r="J71" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K71" s="63" t="s">
+      <c r="K71" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="L71" s="63" t="s">
+      <c r="L71" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M71" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="N71" s="63" t="s">
+      <c r="M71" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N71" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="O71" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="P71" s="63" t="s">
+      <c r="O71" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="P71" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Q71" s="48" t="s">
+      <c r="Q71" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="R71" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="S71" s="48" t="s">
+      <c r="R71" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="S71" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
-      <c r="B72" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C72" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="63" t="s">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="P72" s="63" t="s">
+      <c r="P72" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Q72" s="48" t="s">
+      <c r="Q72" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R72" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="48" t="s">
+      <c r="R72" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="21" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3515,58 +3520,58 @@
       <c r="A73" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J73" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="K73" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="L73" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="M73" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="N73" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="O73" s="48" t="s">
+      <c r="B73" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O73" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P73" s="48" t="s">
+      <c r="P73" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Q73" s="48" t="s">
+      <c r="Q73" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R73" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="S73" s="48" t="s">
+      <c r="R73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="S73" s="21" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3574,282 +3579,282 @@
       <c r="A74" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="48">
+      <c r="C74" s="21">
         <v>1</v>
       </c>
-      <c r="D74" s="48">
+      <c r="D74" s="21">
         <v>2</v>
       </c>
-      <c r="E74" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F74" s="48">
+      <c r="E74" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" s="21">
         <v>4</v>
       </c>
-      <c r="G74" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="H74" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="I74" s="48">
+      <c r="G74" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" s="21">
         <v>6</v>
       </c>
-      <c r="J74" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="K74" s="48">
+      <c r="J74" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K74" s="21">
         <v>6</v>
       </c>
-      <c r="L74" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="M74" s="48" t="s">
+      <c r="L74" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M74" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N74" s="48">
+      <c r="N74" s="21">
         <v>10</v>
       </c>
-      <c r="O74" s="48" t="s">
+      <c r="O74" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P74" s="48" t="s">
+      <c r="P74" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Q74" s="48" t="s">
+      <c r="Q74" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="R74" s="48" t="s">
+      <c r="R74" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S74" s="48" t="s">
+      <c r="S74" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B75" s="48" t="s">
+      <c r="B75" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="48">
+      <c r="C75" s="21">
         <v>1</v>
       </c>
-      <c r="D75" s="48">
+      <c r="D75" s="21">
         <v>2</v>
       </c>
-      <c r="E75" s="48" t="s">
+      <c r="E75" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="48">
+      <c r="F75" s="21">
         <v>4</v>
       </c>
-      <c r="G75" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="H75" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="I75" s="48">
+      <c r="G75" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75" s="21">
         <v>6</v>
       </c>
-      <c r="J75" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="K75" s="48">
+      <c r="J75" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K75" s="21">
         <v>6</v>
       </c>
-      <c r="L75" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="M75" s="48" t="s">
+      <c r="L75" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M75" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N75" s="48">
+      <c r="N75" s="21">
         <v>10</v>
       </c>
-      <c r="O75" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="P75" s="48" t="s">
+      <c r="O75" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P75" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Q75" s="48" t="s">
+      <c r="Q75" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R75" s="48" t="s">
+      <c r="R75" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S75" s="48" t="s">
+      <c r="S75" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B76" s="48" t="s">
+      <c r="B76" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="48">
+      <c r="C76" s="21">
         <v>1</v>
       </c>
-      <c r="D76" s="48">
+      <c r="D76" s="21">
         <v>2</v>
       </c>
-      <c r="E76" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F76" s="48">
+      <c r="E76" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="21">
         <v>4</v>
       </c>
-      <c r="G76" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="H76" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="I76" s="48">
+      <c r="G76" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H76" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76" s="21">
         <v>6</v>
       </c>
-      <c r="J76" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="K76" s="48">
+      <c r="J76" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K76" s="21">
         <v>6</v>
       </c>
-      <c r="L76" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="M76" s="48" t="s">
+      <c r="L76" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M76" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N76" s="48">
+      <c r="N76" s="21">
         <v>10</v>
       </c>
-      <c r="O76" s="48" t="s">
+      <c r="O76" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P76" s="48" t="s">
+      <c r="P76" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Q76" s="48" t="s">
+      <c r="Q76" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="R76" s="48" t="s">
+      <c r="R76" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S76" s="48" t="s">
+      <c r="S76" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B77" s="48" t="s">
+      <c r="B77" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="48">
+      <c r="C77" s="21">
         <v>1</v>
       </c>
-      <c r="D77" s="48">
+      <c r="D77" s="21">
         <v>2</v>
       </c>
-      <c r="E77" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F77" s="48">
+      <c r="E77" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" s="21">
         <v>4</v>
       </c>
-      <c r="G77" s="48" t="s">
+      <c r="G77" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H77" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="I77" s="48">
+      <c r="H77" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I77" s="21">
         <v>6</v>
       </c>
-      <c r="J77" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="K77" s="48">
+      <c r="J77" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K77" s="21">
         <v>6</v>
       </c>
-      <c r="L77" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="M77" s="48" t="s">
+      <c r="L77" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M77" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N77" s="48">
+      <c r="N77" s="21">
         <v>10</v>
       </c>
-      <c r="O77" s="48" t="s">
+      <c r="O77" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P77" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q77" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="R77" s="48" t="s">
+      <c r="P77" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q77" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R77" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S77" s="48" t="s">
+      <c r="S77" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="48">
+      <c r="C78" s="21">
         <v>1</v>
       </c>
-      <c r="D78" s="48">
+      <c r="D78" s="21">
         <v>2</v>
       </c>
-      <c r="E78" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F78" s="48">
+      <c r="E78" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="21">
         <v>4</v>
       </c>
-      <c r="G78" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="H78" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="I78" s="48">
+      <c r="G78" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H78" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I78" s="21">
         <v>6</v>
       </c>
-      <c r="J78" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="K78" s="48">
+      <c r="J78" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K78" s="21">
         <v>6</v>
       </c>
-      <c r="L78" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="M78" s="48" t="s">
+      <c r="L78" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M78" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N78" s="48">
+      <c r="N78" s="21">
         <v>10</v>
       </c>
-      <c r="O78" s="48" t="s">
+      <c r="O78" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P78" s="48" t="s">
+      <c r="P78" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Q78" s="48" t="s">
+      <c r="Q78" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="R78" s="48" t="s">
+      <c r="R78" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S78" s="48" t="s">
+      <c r="S78" s="21" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3857,81 +3862,82 @@
       <c r="A79" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="48">
+      <c r="C79" s="21">
         <v>1</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="21">
         <v>2</v>
       </c>
-      <c r="E79" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F79" s="48">
+      <c r="E79" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="21">
         <v>4</v>
       </c>
-      <c r="G79" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="H79" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="I79" s="48">
+      <c r="G79" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I79" s="21">
         <v>6</v>
       </c>
-      <c r="J79" s="48" t="s">
+      <c r="J79" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K79" s="48">
+      <c r="K79" s="21">
         <v>6</v>
       </c>
-      <c r="L79" s="48" t="s">
+      <c r="L79" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M79" s="48" t="s">
+      <c r="M79" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N79" s="48">
+      <c r="N79" s="21">
         <v>10</v>
       </c>
-      <c r="O79" s="48" t="s">
+      <c r="O79" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P79" s="48" t="s">
+      <c r="P79" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Q79" s="48" t="s">
+      <c r="Q79" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R79" s="48" t="s">
+      <c r="R79" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S79" s="48" t="s">
+      <c r="S79" s="21" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="F53:L53"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="F52:L52"/>
-    <mergeCell ref="F54:L54"/>
-    <mergeCell ref="F48:L48"/>
-    <mergeCell ref="F49:L49"/>
-    <mergeCell ref="F50:L50"/>
-    <mergeCell ref="F51:L51"/>
+  <mergeCells count="51">
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="S2:S6"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="F3:L3"/>
     <mergeCell ref="C3:C5"/>
@@ -3945,25 +3951,25 @@
     <mergeCell ref="M3:M5"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="N4:N5"/>
-    <mergeCell ref="S2:S6"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F52:L52"/>
+    <mergeCell ref="F54:L54"/>
+    <mergeCell ref="F48:L48"/>
+    <mergeCell ref="F49:L49"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="F51:L51"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="F53:L53"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="I59:J59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3971,7 +3977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -4012,13 +4018,13 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="58" t="s">
         <v>130</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -4033,11 +4039,11 @@
       <c r="I3" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
       <c r="M3" s="19" t="s">
         <v>124</v>
       </c>
@@ -4046,9 +4052,9 @@
       </c>
     </row>
     <row r="4" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="17" t="s">
         <v>113</v>
       </c>
@@ -4058,19 +4064,19 @@
       <c r="H4" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
       <c r="N4" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="17" t="s">
         <v>113</v>
       </c>
@@ -4088,9 +4094,9 @@
       </c>
     </row>
     <row r="6" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="17" t="s">
         <v>114</v>
       </c>
@@ -4108,9 +4114,9 @@
       </c>
     </row>
     <row r="7" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="17" t="s">
         <v>113</v>
       </c>
@@ -4128,9 +4134,9 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="17" t="s">
         <v>113</v>
       </c>
@@ -4140,9 +4146,9 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="17" t="s">
         <v>114</v>
       </c>
@@ -4151,9 +4157,9 @@
       </c>
     </row>
     <row r="10" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="17" t="s">
         <v>113</v>
       </c>
@@ -4163,9 +4169,9 @@
       <c r="L10"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="17" t="s">
         <v>113</v>
       </c>
@@ -4174,11 +4180,11 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="42" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="61" t="s">
         <v>131</v>
       </c>
       <c r="E12" s="17" t="s">
@@ -4189,9 +4195,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="17" t="s">
         <v>113</v>
       </c>
@@ -4200,9 +4206,9 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="17" t="s">
         <v>115</v>
       </c>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="1680" windowWidth="20610" windowHeight="6525"/>
+    <workbookView xWindow="-120" yWindow="1680" windowWidth="20610" windowHeight="6525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="133">
   <si>
     <t>#</t>
   </si>
@@ -393,6 +394,45 @@
   </si>
   <si>
     <t>0xAAAABBBB</t>
+  </si>
+  <si>
+    <t>read only pcl part</t>
+  </si>
+  <si>
+    <t>from # to Judgement</t>
+  </si>
+  <si>
+    <t>Judgement</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>convert to</t>
+  </si>
+  <si>
+    <t>first_col</t>
+  </si>
+  <si>
+    <t>last_col</t>
+  </si>
+  <si>
+    <t>get pcl info</t>
+  </si>
+  <si>
+    <t>get pcl data</t>
+  </si>
+  <si>
+    <t>inp_available</t>
+  </si>
+  <si>
+    <t>jud_col</t>
+  </si>
+  <si>
+    <t>obj cell</t>
+  </si>
+  <si>
+    <t>obj pcl info</t>
   </si>
 </sst>
 </file>
@@ -559,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -656,88 +696,88 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -763,6 +803,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,9 +1094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,31 +1208,31 @@
         <f>ROW($B3)-ROW($B$3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="39" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="52" t="s">
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="42" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1192,26 +1241,26 @@
         <f t="shared" ref="B4:B13" si="1">ROW($B4)-ROW($B$3)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="61" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="54" t="s">
         <v>116</v>
       </c>
       <c r="O4" s="8" t="s">
@@ -1220,73 +1269,73 @@
       <c r="P4" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="56"/>
-      <c r="T4" s="44" t="s">
+      <c r="S4" s="57"/>
+      <c r="T4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="53"/>
+      <c r="U4" s="43"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="44" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="58" t="s">
+      <c r="K5" s="47"/>
+      <c r="L5" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="51" t="s">
+      <c r="M5" s="47"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51" t="s">
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="51" t="s">
+      <c r="S5" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="45"/>
-      <c r="U5" s="53"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="43"/>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1299,21 +1348,21 @@
       <c r="M6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="61"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="43"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
@@ -1365,7 +1414,7 @@
       <c r="T7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="54"/>
+      <c r="U7" s="44"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
@@ -1792,15 +1841,15 @@
       <c r="F16" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
@@ -1825,15 +1874,15 @@
       <c r="F17" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
@@ -1858,15 +1907,15 @@
       <c r="F18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
@@ -1891,15 +1940,15 @@
       <c r="F19" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
@@ -1924,15 +1973,15 @@
       <c r="F20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
@@ -1957,15 +2006,15 @@
       <c r="F21" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
@@ -1990,15 +2039,15 @@
       <c r="F22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
+      <c r="G22" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
@@ -2022,15 +2071,15 @@
       <c r="F23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
@@ -2055,15 +2104,15 @@
       <c r="F24" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
@@ -2091,14 +2140,14 @@
       <c r="I25" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="62" t="s">
+      <c r="J25" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62" t="s">
+      <c r="K25" s="40"/>
+      <c r="L25" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="62"/>
+      <c r="M25" s="40"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
@@ -2126,14 +2175,14 @@
       <c r="I26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50" t="s">
+      <c r="K26" s="39"/>
+      <c r="L26" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="50"/>
+      <c r="M26" s="39"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
@@ -2161,14 +2210,14 @@
       <c r="I27" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50" t="s">
+      <c r="K27" s="39"/>
+      <c r="L27" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="M27" s="50"/>
+      <c r="M27" s="39"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
@@ -2196,14 +2245,14 @@
       <c r="I28" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="50" t="s">
+      <c r="J28" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50" t="s">
+      <c r="K28" s="39"/>
+      <c r="L28" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="M28" s="50"/>
+      <c r="M28" s="39"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
@@ -2231,14 +2280,14 @@
       <c r="I29" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="K29" s="49"/>
-      <c r="L29" s="48" t="s">
+      <c r="K29" s="63"/>
+      <c r="L29" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="M29" s="49"/>
+      <c r="M29" s="63"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
@@ -2266,14 +2315,14 @@
       <c r="I30" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="J30" s="63" t="s">
+      <c r="J30" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="K30" s="63"/>
-      <c r="L30" s="50" t="s">
+      <c r="K30" s="41"/>
+      <c r="L30" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="M30" s="50"/>
+      <c r="M30" s="39"/>
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
@@ -2301,14 +2350,14 @@
       <c r="I31" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50" t="s">
+      <c r="K31" s="39"/>
+      <c r="L31" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="50"/>
+      <c r="M31" s="39"/>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
@@ -2336,14 +2385,14 @@
       <c r="I32" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="36" t="s">
+      <c r="J32" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="K32" s="37"/>
-      <c r="L32" s="36" t="s">
+      <c r="K32" s="59"/>
+      <c r="L32" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="37"/>
+      <c r="M32" s="59"/>
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
@@ -3369,36 +3418,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="U3:U7"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="R4:S4"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="G24:M24"/>
     <mergeCell ref="P3:T3"/>
@@ -3415,6 +3434,36 @@
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
     <mergeCell ref="G19:M19"/>
+    <mergeCell ref="U3:U7"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="J30:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3422,6 +3471,319 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="73"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="7">
+        <f>COLUMN(J$3)-COLUMN($J$3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" ref="K3:O3" si="0">COLUMN(K$3)-COLUMN($J$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M3" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N3" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O3" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="7">
+        <f>ROW($I4)-ROW($I$4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="78"/>
+      <c r="C5" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I7" si="1">ROW($I5)-ROW($I$4)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J7" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="81"/>
+      <c r="C9" s="73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D11" s="81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N17"/>
   <sheetViews>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ut_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDDFC6D-9665-4687-A4A6-2AB7C4D2DCEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="1680" windowWidth="20610" windowHeight="6525" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -438,7 +440,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -696,6 +698,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -780,6 +787,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -803,15 +814,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,12 +1093,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q7" sqref="Q7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,31 +1210,31 @@
         <f>ROW($B3)-ROW($B$3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="51" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="42" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="47" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1241,26 +1243,26 @@
         <f t="shared" ref="B4:B13" si="1">ROW($B4)-ROW($B$3)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="54" t="s">
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="59" t="s">
         <v>116</v>
       </c>
       <c r="O4" s="8" t="s">
@@ -1269,73 +1271,73 @@
       <c r="P4" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="56" t="s">
+      <c r="R4" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="57"/>
-      <c r="T4" s="48" t="s">
+      <c r="S4" s="62"/>
+      <c r="T4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="43"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="45" t="s">
+      <c r="K5" s="52"/>
+      <c r="L5" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="55" t="s">
+      <c r="M5" s="52"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="P5" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55" t="s">
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="55" t="s">
+      <c r="S5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="49"/>
-      <c r="U5" s="43"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1348,21 +1350,21 @@
       <c r="M6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="43"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="48"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1416,7 @@
       <c r="T7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="44"/>
+      <c r="U7" s="49"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
@@ -1841,15 +1843,15 @@
       <c r="F16" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
@@ -1874,15 +1876,15 @@
       <c r="F17" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
@@ -1907,15 +1909,15 @@
       <c r="F18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
@@ -1940,15 +1942,15 @@
       <c r="F19" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
@@ -1973,15 +1975,15 @@
       <c r="F20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
@@ -2006,15 +2008,15 @@
       <c r="F21" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
@@ -2039,15 +2041,15 @@
       <c r="F22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
+      <c r="G22" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
@@ -2071,15 +2073,15 @@
       <c r="F23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
@@ -2104,15 +2106,15 @@
       <c r="F24" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
@@ -2140,14 +2142,14 @@
       <c r="I25" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="40" t="s">
+      <c r="J25" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40" t="s">
+      <c r="K25" s="45"/>
+      <c r="L25" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="40"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
@@ -2175,14 +2177,14 @@
       <c r="I26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="J26" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39" t="s">
+      <c r="K26" s="44"/>
+      <c r="L26" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="39"/>
+      <c r="M26" s="44"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
@@ -2210,14 +2212,14 @@
       <c r="I27" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="J27" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39" t="s">
+      <c r="K27" s="44"/>
+      <c r="L27" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="M27" s="39"/>
+      <c r="M27" s="44"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
@@ -2245,14 +2247,14 @@
       <c r="I28" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="39" t="s">
+      <c r="J28" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39" t="s">
+      <c r="K28" s="44"/>
+      <c r="L28" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="M28" s="39"/>
+      <c r="M28" s="44"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
@@ -2280,14 +2282,14 @@
       <c r="I29" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="62" t="s">
+      <c r="J29" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="K29" s="63"/>
-      <c r="L29" s="62" t="s">
+      <c r="K29" s="68"/>
+      <c r="L29" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="M29" s="63"/>
+      <c r="M29" s="68"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
@@ -2315,14 +2317,14 @@
       <c r="I30" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="J30" s="41" t="s">
+      <c r="J30" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="K30" s="41"/>
-      <c r="L30" s="39" t="s">
+      <c r="K30" s="46"/>
+      <c r="L30" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="M30" s="39"/>
+      <c r="M30" s="44"/>
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
@@ -2350,14 +2352,14 @@
       <c r="I31" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39" t="s">
+      <c r="K31" s="44"/>
+      <c r="L31" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="39"/>
+      <c r="M31" s="44"/>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
@@ -2385,14 +2387,14 @@
       <c r="I32" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="58" t="s">
+      <c r="J32" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="K32" s="59"/>
-      <c r="L32" s="58" t="s">
+      <c r="K32" s="64"/>
+      <c r="L32" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="59"/>
+      <c r="M32" s="64"/>
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
@@ -3471,305 +3473,305 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="73"/>
+    <col min="1" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="7">
-        <f>COLUMN(J$3)-COLUMN($J$3)</f>
+      <c r="K3" s="7">
+        <f t="shared" ref="K3:P3" si="0">COLUMN(K$3)-COLUMN($K$3)</f>
         <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <f t="shared" ref="K3:O3" si="0">COLUMN(K$3)-COLUMN($J$3)</f>
-        <v>1</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O3" s="7">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P3" s="7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="75" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77" t="s">
+      <c r="F4" s="70"/>
+      <c r="G4" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="7">
-        <f>ROW($I4)-ROW($I$4)</f>
+      <c r="J4" s="7">
+        <f>ROW($J4)-ROW($J$4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="K4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="L4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="79" t="s">
+      <c r="M4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="N4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="O4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="P4" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="78"/>
-      <c r="C5" s="77" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="72"/>
+      <c r="C5" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="7">
-        <f t="shared" ref="I5:I7" si="1">ROW($I5)-ROW($I$4)</f>
+      <c r="J5" s="7">
+        <f>ROW($J5)-ROW($J$4)</f>
         <v>1</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="K5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="L5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="79" t="s">
+      <c r="M5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="79" t="s">
+      <c r="N5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="79" t="s">
+      <c r="O5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="79" t="s">
+      <c r="P5" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="7">
-        <f t="shared" si="1"/>
+      <c r="J6" s="7">
+        <f>ROW($J6)-ROW($J$4)</f>
         <v>2</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="K6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="79" t="s">
+      <c r="L6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="M6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="79" t="s">
+      <c r="N6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="79" t="s">
+      <c r="O6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="79" t="s">
+      <c r="P6" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="79" t="s">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
+      <c r="J7" s="7">
+        <f>ROW($J7)-ROW($J$4)</f>
         <v>3</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="K7" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="L7" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="79" t="s">
+      <c r="M7" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="79" t="s">
+      <c r="N7" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="79" t="s">
+      <c r="O7" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="79" t="s">
+      <c r="P7" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="81" t="s">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="40" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="81"/>
-      <c r="C9" s="73" t="s">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="40"/>
+      <c r="C9" s="36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="81" t="s">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D10" s="40" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="81" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D11" s="40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D12" s="81" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D12" s="40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D13" s="81" t="s">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="73" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="36" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="73" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="36" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="73" t="s">
+    <row r="16" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="36" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="36" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="36" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="36" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="36" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="36" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="36" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3784,7 +3786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3825,13 +3827,13 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="73" t="s">
         <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3846,11 +3848,11 @@
       <c r="I3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="4" t="s">
         <v>81</v>
       </c>
@@ -3859,9 +3861,9 @@
       </c>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="2" t="s">
         <v>70</v>
       </c>
@@ -3871,19 +3873,19 @@
       <c r="H4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="69" t="s">
+      <c r="J4" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
       <c r="N4" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="2" t="s">
         <v>70</v>
       </c>
@@ -3901,9 +3903,9 @@
       </c>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="71"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="2" t="s">
         <v>71</v>
       </c>
@@ -3921,9 +3923,9 @@
       </c>
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="71"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="2" t="s">
         <v>70</v>
       </c>
@@ -3941,9 +3943,9 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="71"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="2" t="s">
         <v>70</v>
       </c>
@@ -3953,9 +3955,9 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="71"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="2" t="s">
         <v>71</v>
       </c>
@@ -3964,9 +3966,9 @@
       </c>
     </row>
     <row r="10" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="2" t="s">
         <v>70</v>
       </c>
@@ -3976,9 +3978,9 @@
       <c r="L10"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="71"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="2" t="s">
         <v>70</v>
       </c>
@@ -3987,11 +3989,11 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="76" t="s">
         <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -4002,9 +4004,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="2" t="s">
         <v>70</v>
       </c>
@@ -4013,9 +4015,9 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="72"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="2" t="s">
         <v>72</v>
       </c>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ut_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDDFC6D-9665-4687-A4A6-2AB7C4D2DCEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="17175" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="233">
   <si>
     <t>#</t>
   </si>
@@ -435,12 +434,312 @@
   </si>
   <si>
     <t>obj pcl info</t>
+  </si>
+  <si>
+    <t>read from xlsx to get worksheet data</t>
+  </si>
+  <si>
+    <t>only get data within range</t>
+  </si>
+  <si>
+    <t>start row and start col in position of "#"</t>
+  </si>
+  <si>
+    <t>end col in position of "Judgment"</t>
+  </si>
+  <si>
+    <t>end row in position of all blank space</t>
+  </si>
+  <si>
+    <t>cell value</t>
+  </si>
+  <si>
+    <t>first column</t>
+  </si>
+  <si>
+    <t>last column</t>
+  </si>
+  <si>
+    <t>first row</t>
+  </si>
+  <si>
+    <t>last row</t>
+  </si>
+  <si>
+    <t>analyze the worksheet data</t>
+  </si>
+  <si>
+    <t>worksheet data contain information of cell</t>
+  </si>
+  <si>
+    <t>element info</t>
+  </si>
+  <si>
+    <t>stub function info</t>
+  </si>
+  <si>
+    <t>is pointer</t>
+  </si>
+  <si>
+    <t>is structure</t>
+  </si>
+  <si>
+    <t>is array</t>
+  </si>
+  <si>
+    <t>check expect</t>
+  </si>
+  <si>
+    <t>return type</t>
+  </si>
+  <si>
+    <t>function name</t>
+  </si>
+  <si>
+    <t>variable declare</t>
+  </si>
+  <si>
+    <t>variable type</t>
+  </si>
+  <si>
+    <t>variable name</t>
+  </si>
+  <si>
+    <t>output variable</t>
+  </si>
+  <si>
+    <t>check variable</t>
+  </si>
+  <si>
+    <t>pcl info contain</t>
+  </si>
+  <si>
+    <t>cell info contain</t>
+  </si>
+  <si>
+    <t>first test case row</t>
+  </si>
+  <si>
+    <t>last test case row</t>
+  </si>
+  <si>
+    <t>init variable row</t>
+  </si>
+  <si>
+    <t>input define available</t>
+  </si>
+  <si>
+    <t>input start column</t>
+  </si>
+  <si>
+    <t>input end column</t>
+  </si>
+  <si>
+    <t>output define available</t>
+  </si>
+  <si>
+    <t>output start column</t>
+  </si>
+  <si>
+    <t>output end column</t>
+  </si>
+  <si>
+    <t>judgment column</t>
+  </si>
+  <si>
+    <t>get test information</t>
+  </si>
+  <si>
+    <t>export to test program using test information</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>framework cantata</t>
+  </si>
+  <si>
+    <t>framework gtest</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>using python library openpyxl to get workbook information</t>
+  </si>
+  <si>
+    <t>get worksheet information</t>
+  </si>
+  <si>
+    <t>load_workbook(workbook_dir, data_only=True) store to var "wb"</t>
+  </si>
+  <si>
+    <t>wb[worksheet_name] store to var "ws"</t>
+  </si>
+  <si>
+    <t>loop through each row of worksheet "ws"</t>
+  </si>
+  <si>
+    <t>loop through each col of row</t>
+  </si>
+  <si>
+    <t>process if cell value is in range of requirement</t>
+  </si>
+  <si>
+    <t>loop through each row of pcl data</t>
+  </si>
+  <si>
+    <t>store new array of column and row base on enumerate of loop row and col</t>
+  </si>
+  <si>
+    <t>store cell value</t>
+  </si>
+  <si>
+    <t>create cell info object</t>
+  </si>
+  <si>
+    <t>in first column, col = 0</t>
+  </si>
+  <si>
+    <t>find "-" in cell value</t>
+  </si>
+  <si>
+    <t>first found is first test case row</t>
+  </si>
+  <si>
+    <t>end of loop row is last test case row</t>
+  </si>
+  <si>
+    <t>the above first test case row is init variable row</t>
+  </si>
+  <si>
+    <t>in first row, row = 0</t>
+  </si>
+  <si>
+    <t>check if "Input factor" is available?</t>
+  </si>
+  <si>
+    <t>if yes store input available as True and</t>
+  </si>
+  <si>
+    <t>input start column as col</t>
+  </si>
+  <si>
+    <t>check if "Output element" is available?</t>
+  </si>
+  <si>
+    <t>if yes store output available as True and</t>
+  </si>
+  <si>
+    <t>if input available, then store input end column as col - 1</t>
+  </si>
+  <si>
+    <t>check if "Judgment" is available?</t>
+  </si>
+  <si>
+    <t>if yes store judgment column as col</t>
+  </si>
+  <si>
+    <t>if output available, then store output end column as col - 1</t>
+  </si>
+  <si>
+    <t>else store the input end column as col - 1</t>
+  </si>
+  <si>
+    <t>if input available, then process the following</t>
+  </si>
+  <si>
+    <t>if output available, then process the following</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>then remove "[a]" or "[g]" in cell value and process the following</t>
+  </si>
+  <si>
+    <t>if symbol "[a]" or "[g]" is in cell value</t>
+  </si>
+  <si>
+    <t>create element info object</t>
+  </si>
+  <si>
+    <t>set cell value to variable declare</t>
+  </si>
+  <si>
+    <t>split cell value by blank space " " and store to variable type and variable name</t>
+  </si>
+  <si>
+    <t>check is this argument a pointer by search for matching line in file pointer.txt</t>
+  </si>
+  <si>
+    <t>check is this argument a structure by search for matching line in file structure.txt</t>
+  </si>
+  <si>
+    <t>check is this argument a array by search cell value for symbol "[" and "]"</t>
+  </si>
+  <si>
+    <t>append to new array named pcl data</t>
+  </si>
+  <si>
+    <t>create test info list</t>
+  </si>
+  <si>
+    <t>append element info object to test info</t>
+  </si>
+  <si>
+    <t>init value</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>if the cell value of next row, with same column is not "None" then process the following</t>
+  </si>
+  <si>
+    <t>append the variable name of above to parent of this cell</t>
+  </si>
+  <si>
+    <t>create new element info object and process the same as above</t>
+  </si>
+  <si>
+    <t>append this element info object to above's child</t>
+  </si>
+  <si>
+    <t>loop through each col of pcl data row[1] from input start column to input end column</t>
+  </si>
+  <si>
+    <t>loop through each ol of pcl data row[1] from output start column to output end column</t>
+  </si>
+  <si>
+    <t>get variable name of this cell value</t>
+  </si>
+  <si>
+    <t>if this name match with above variable name, then</t>
+  </si>
+  <si>
+    <t>loop from cell first column to last column</t>
+  </si>
+  <si>
+    <t>if under the cell is not "None"</t>
+  </si>
+  <si>
+    <t>get this cell value, will be named "[0]" and join with this variable name, the result is "var[0]"</t>
+  </si>
+  <si>
+    <t>append this result to check expect</t>
+  </si>
+  <si>
+    <t>repeat the above process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,7 +799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -597,11 +896,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -703,88 +1082,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -812,6 +1194,54 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1093,19 +1523,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J13" sqref="J13"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="6" bestFit="1" customWidth="1"/>
@@ -1210,31 +1640,31 @@
         <f>ROW($B3)-ROW($B$3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="56" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="47" t="s">
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="59" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1243,26 +1673,26 @@
         <f t="shared" ref="B4:B13" si="1">ROW($B4)-ROW($B$3)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="59" t="s">
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67" t="s">
         <v>116</v>
       </c>
       <c r="O4" s="8" t="s">
@@ -1271,73 +1701,73 @@
       <c r="P4" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="62"/>
-      <c r="T4" s="53" t="s">
+      <c r="S4" s="63"/>
+      <c r="T4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="48"/>
+      <c r="U4" s="60"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="50" t="s">
+      <c r="K5" s="66"/>
+      <c r="L5" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="52"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="60" t="s">
+      <c r="M5" s="66"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="65" t="s">
+      <c r="P5" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60" t="s">
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="60" t="s">
+      <c r="S5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="54"/>
-      <c r="U5" s="48"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="60"/>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1350,21 +1780,21 @@
       <c r="M6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="48"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="60"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1846,7 @@
       <c r="T7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="49"/>
+      <c r="U7" s="61"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
@@ -1843,15 +2273,15 @@
       <c r="F16" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
@@ -1876,15 +2306,15 @@
       <c r="F17" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
@@ -1909,15 +2339,15 @@
       <c r="F18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
@@ -1942,15 +2372,15 @@
       <c r="F19" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
@@ -1975,15 +2405,15 @@
       <c r="F20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
@@ -2008,15 +2438,15 @@
       <c r="F21" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
@@ -2041,15 +2471,15 @@
       <c r="F22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
@@ -2073,15 +2503,15 @@
       <c r="F23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
@@ -2106,15 +2536,15 @@
       <c r="F24" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
@@ -2142,14 +2572,14 @@
       <c r="I25" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45" t="s">
+      <c r="K25" s="68"/>
+      <c r="L25" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="45"/>
+      <c r="M25" s="68"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
@@ -2177,14 +2607,14 @@
       <c r="I26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="44" t="s">
+      <c r="J26" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44" t="s">
+      <c r="K26" s="56"/>
+      <c r="L26" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="44"/>
+      <c r="M26" s="56"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
@@ -2212,14 +2642,14 @@
       <c r="I27" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44" t="s">
+      <c r="K27" s="56"/>
+      <c r="L27" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="M27" s="44"/>
+      <c r="M27" s="56"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
@@ -2247,14 +2677,14 @@
       <c r="I28" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="44" t="s">
+      <c r="J28" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44" t="s">
+      <c r="K28" s="56"/>
+      <c r="L28" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="M28" s="44"/>
+      <c r="M28" s="56"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
@@ -2282,14 +2712,14 @@
       <c r="I29" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="67" t="s">
+      <c r="J29" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="K29" s="68"/>
-      <c r="L29" s="67" t="s">
+      <c r="K29" s="55"/>
+      <c r="L29" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="M29" s="68"/>
+      <c r="M29" s="55"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
@@ -2317,14 +2747,14 @@
       <c r="I30" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="J30" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="K30" s="46"/>
-      <c r="L30" s="44" t="s">
+      <c r="K30" s="69"/>
+      <c r="L30" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="M30" s="44"/>
+      <c r="M30" s="56"/>
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
@@ -2352,14 +2782,14 @@
       <c r="I31" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="44" t="s">
+      <c r="J31" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44" t="s">
+      <c r="K31" s="56"/>
+      <c r="L31" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="44"/>
+      <c r="M31" s="56"/>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
@@ -2387,14 +2817,14 @@
       <c r="I32" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="63" t="s">
+      <c r="J32" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="K32" s="64"/>
-      <c r="L32" s="63" t="s">
+      <c r="K32" s="43"/>
+      <c r="L32" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="64"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
@@ -3420,6 +3850,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="U3:U7"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="R4:S4"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="G24:M24"/>
     <mergeCell ref="P3:T3"/>
@@ -3436,36 +3896,6 @@
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
     <mergeCell ref="G19:M19"/>
-    <mergeCell ref="U3:U7"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="J30:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3473,11 +3903,3571 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO74"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="41" width="4.7109375" style="6" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="47"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="93">
+        <v>1</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="86"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="95"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="88"/>
+      <c r="AJ3" s="88"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="88"/>
+      <c r="AM3" s="88"/>
+      <c r="AN3" s="88"/>
+      <c r="AO3" s="89"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="95"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="89"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="94"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="91"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="91"/>
+      <c r="AM5" s="91"/>
+      <c r="AN5" s="91"/>
+      <c r="AO5" s="92"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="83">
+        <v>2</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="85"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="85"/>
+      <c r="AJ6" s="85"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="85"/>
+      <c r="AN6" s="85"/>
+      <c r="AO6" s="86"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="83"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="88"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="88"/>
+      <c r="AE7" s="88"/>
+      <c r="AF7" s="88"/>
+      <c r="AG7" s="88"/>
+      <c r="AH7" s="88"/>
+      <c r="AI7" s="88"/>
+      <c r="AJ7" s="88"/>
+      <c r="AK7" s="88"/>
+      <c r="AL7" s="88"/>
+      <c r="AM7" s="88"/>
+      <c r="AN7" s="88"/>
+      <c r="AO7" s="89"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="83"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="88"/>
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="89"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="88"/>
+      <c r="AH9" s="88"/>
+      <c r="AI9" s="88"/>
+      <c r="AJ9" s="88"/>
+      <c r="AK9" s="88"/>
+      <c r="AL9" s="88"/>
+      <c r="AM9" s="88"/>
+      <c r="AN9" s="88"/>
+      <c r="AO9" s="89"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="87"/>
+      <c r="P10" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="88"/>
+      <c r="AE10" s="88"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="88"/>
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="88"/>
+      <c r="AL10" s="88"/>
+      <c r="AM10" s="88"/>
+      <c r="AN10" s="88"/>
+      <c r="AO10" s="89"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="83"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="87"/>
+      <c r="P11" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="88"/>
+      <c r="AD11" s="88"/>
+      <c r="AE11" s="88"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="88"/>
+      <c r="AJ11" s="88"/>
+      <c r="AK11" s="88"/>
+      <c r="AL11" s="88"/>
+      <c r="AM11" s="88"/>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="89"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="83"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="88" t="s">
+        <v>215</v>
+      </c>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="88"/>
+      <c r="AE12" s="88"/>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="88"/>
+      <c r="AH12" s="88"/>
+      <c r="AI12" s="88"/>
+      <c r="AJ12" s="88"/>
+      <c r="AK12" s="88"/>
+      <c r="AL12" s="88"/>
+      <c r="AM12" s="88"/>
+      <c r="AN12" s="88"/>
+      <c r="AO12" s="89"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="83"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="88"/>
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="88"/>
+      <c r="AH13" s="88"/>
+      <c r="AI13" s="88"/>
+      <c r="AJ13" s="88"/>
+      <c r="AK13" s="88"/>
+      <c r="AL13" s="88"/>
+      <c r="AM13" s="88"/>
+      <c r="AN13" s="88"/>
+      <c r="AO13" s="89"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="83"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="88"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="88"/>
+      <c r="AH14" s="88"/>
+      <c r="AI14" s="88"/>
+      <c r="AJ14" s="88"/>
+      <c r="AK14" s="88"/>
+      <c r="AL14" s="88"/>
+      <c r="AM14" s="88"/>
+      <c r="AN14" s="88"/>
+      <c r="AO14" s="89"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="83"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="88"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="88"/>
+      <c r="AD15" s="88"/>
+      <c r="AE15" s="88"/>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="88"/>
+      <c r="AH15" s="88"/>
+      <c r="AI15" s="88"/>
+      <c r="AJ15" s="88"/>
+      <c r="AK15" s="88"/>
+      <c r="AL15" s="88"/>
+      <c r="AM15" s="88"/>
+      <c r="AN15" s="88"/>
+      <c r="AO15" s="89"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" s="83"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="91"/>
+      <c r="AE16" s="91"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="91"/>
+      <c r="AJ16" s="91"/>
+      <c r="AK16" s="91"/>
+      <c r="AL16" s="91"/>
+      <c r="AM16" s="91"/>
+      <c r="AN16" s="91"/>
+      <c r="AO16" s="92"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" s="83">
+        <v>3</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="85"/>
+      <c r="AC17" s="85"/>
+      <c r="AD17" s="85"/>
+      <c r="AE17" s="85"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="85"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="85"/>
+      <c r="AK17" s="85"/>
+      <c r="AL17" s="85"/>
+      <c r="AM17" s="85"/>
+      <c r="AN17" s="85"/>
+      <c r="AO17" s="86"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" s="83"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="88"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="88"/>
+      <c r="AD18" s="88"/>
+      <c r="AE18" s="88"/>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="88"/>
+      <c r="AH18" s="88"/>
+      <c r="AI18" s="88"/>
+      <c r="AJ18" s="88"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="88"/>
+      <c r="AM18" s="88"/>
+      <c r="AN18" s="88"/>
+      <c r="AO18" s="89"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" s="83"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="88" t="s">
+        <v>188</v>
+      </c>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="88"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="88"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="88"/>
+      <c r="AD19" s="88"/>
+      <c r="AE19" s="88"/>
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="88"/>
+      <c r="AH19" s="88"/>
+      <c r="AI19" s="88"/>
+      <c r="AJ19" s="88"/>
+      <c r="AK19" s="88"/>
+      <c r="AL19" s="88"/>
+      <c r="AM19" s="88"/>
+      <c r="AN19" s="88"/>
+      <c r="AO19" s="89"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20" s="83"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="P20" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="88"/>
+      <c r="AD20" s="88"/>
+      <c r="AE20" s="88"/>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="88"/>
+      <c r="AH20" s="88"/>
+      <c r="AI20" s="88"/>
+      <c r="AJ20" s="88"/>
+      <c r="AK20" s="88"/>
+      <c r="AL20" s="88"/>
+      <c r="AM20" s="88"/>
+      <c r="AN20" s="88"/>
+      <c r="AO20" s="89"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21" s="83"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="88"/>
+      <c r="AB21" s="88"/>
+      <c r="AC21" s="88"/>
+      <c r="AD21" s="88"/>
+      <c r="AE21" s="88"/>
+      <c r="AF21" s="88"/>
+      <c r="AG21" s="88"/>
+      <c r="AH21" s="88"/>
+      <c r="AI21" s="88"/>
+      <c r="AJ21" s="88"/>
+      <c r="AK21" s="88"/>
+      <c r="AL21" s="88"/>
+      <c r="AM21" s="88"/>
+      <c r="AN21" s="88"/>
+      <c r="AO21" s="89"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A22" s="83"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="88"/>
+      <c r="AE22" s="88"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="88"/>
+      <c r="AH22" s="88"/>
+      <c r="AI22" s="88"/>
+      <c r="AJ22" s="88"/>
+      <c r="AK22" s="88"/>
+      <c r="AL22" s="88"/>
+      <c r="AM22" s="88"/>
+      <c r="AN22" s="88"/>
+      <c r="AO22" s="89"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23" s="83"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88">
+        <v>-1</v>
+      </c>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="P23" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="88"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="88"/>
+      <c r="AD23" s="88"/>
+      <c r="AE23" s="88"/>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="88"/>
+      <c r="AH23" s="88"/>
+      <c r="AI23" s="88"/>
+      <c r="AJ23" s="88"/>
+      <c r="AK23" s="88"/>
+      <c r="AL23" s="88"/>
+      <c r="AM23" s="88"/>
+      <c r="AN23" s="88"/>
+      <c r="AO23" s="89"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24" s="83"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88">
+        <v>-1</v>
+      </c>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="88"/>
+      <c r="AC24" s="88"/>
+      <c r="AD24" s="88"/>
+      <c r="AE24" s="88"/>
+      <c r="AF24" s="88"/>
+      <c r="AG24" s="88"/>
+      <c r="AH24" s="88"/>
+      <c r="AI24" s="88"/>
+      <c r="AJ24" s="88"/>
+      <c r="AK24" s="88"/>
+      <c r="AL24" s="88"/>
+      <c r="AM24" s="88"/>
+      <c r="AN24" s="88"/>
+      <c r="AO24" s="89"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25" s="83"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="P25" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="88"/>
+      <c r="AD25" s="88"/>
+      <c r="AE25" s="88"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="88"/>
+      <c r="AH25" s="88"/>
+      <c r="AI25" s="88"/>
+      <c r="AJ25" s="88"/>
+      <c r="AK25" s="88"/>
+      <c r="AL25" s="88"/>
+      <c r="AM25" s="88"/>
+      <c r="AN25" s="88"/>
+      <c r="AO25" s="89"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" s="83"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88">
+        <v>-1</v>
+      </c>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="88"/>
+      <c r="AB26" s="88"/>
+      <c r="AC26" s="88"/>
+      <c r="AD26" s="88"/>
+      <c r="AE26" s="88"/>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="88"/>
+      <c r="AH26" s="88"/>
+      <c r="AI26" s="88"/>
+      <c r="AJ26" s="88"/>
+      <c r="AK26" s="88"/>
+      <c r="AL26" s="88"/>
+      <c r="AM26" s="88"/>
+      <c r="AN26" s="88"/>
+      <c r="AO26" s="89"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" s="83"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88">
+        <v>-1</v>
+      </c>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="88"/>
+      <c r="AB27" s="88"/>
+      <c r="AC27" s="88"/>
+      <c r="AD27" s="88"/>
+      <c r="AE27" s="88"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="88"/>
+      <c r="AH27" s="88"/>
+      <c r="AI27" s="88"/>
+      <c r="AJ27" s="88"/>
+      <c r="AK27" s="88"/>
+      <c r="AL27" s="88"/>
+      <c r="AM27" s="88"/>
+      <c r="AN27" s="88"/>
+      <c r="AO27" s="89"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" s="83"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88">
+        <v>-1</v>
+      </c>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="P28" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="88"/>
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="88"/>
+      <c r="AD28" s="88"/>
+      <c r="AE28" s="88"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="88"/>
+      <c r="AH28" s="88"/>
+      <c r="AI28" s="88"/>
+      <c r="AJ28" s="88"/>
+      <c r="AK28" s="88"/>
+      <c r="AL28" s="88"/>
+      <c r="AM28" s="88"/>
+      <c r="AN28" s="88"/>
+      <c r="AO28" s="89"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29" s="83"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="88"/>
+      <c r="AD29" s="88"/>
+      <c r="AE29" s="88"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="88"/>
+      <c r="AH29" s="88"/>
+      <c r="AI29" s="88"/>
+      <c r="AJ29" s="88"/>
+      <c r="AK29" s="88"/>
+      <c r="AL29" s="88"/>
+      <c r="AM29" s="88"/>
+      <c r="AN29" s="88"/>
+      <c r="AO29" s="89"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A30" s="83"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="88"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="88"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="88"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="88"/>
+      <c r="AH30" s="88"/>
+      <c r="AI30" s="88"/>
+      <c r="AJ30" s="88"/>
+      <c r="AK30" s="88"/>
+      <c r="AL30" s="88"/>
+      <c r="AM30" s="88"/>
+      <c r="AN30" s="88"/>
+      <c r="AO30" s="89"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A31" s="83"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="P31" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="88"/>
+      <c r="AA31" s="88"/>
+      <c r="AB31" s="88"/>
+      <c r="AC31" s="88"/>
+      <c r="AD31" s="88"/>
+      <c r="AE31" s="88"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="88"/>
+      <c r="AH31" s="88"/>
+      <c r="AI31" s="88"/>
+      <c r="AJ31" s="88"/>
+      <c r="AK31" s="88"/>
+      <c r="AL31" s="88"/>
+      <c r="AM31" s="88"/>
+      <c r="AN31" s="88"/>
+      <c r="AO31" s="89"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" s="83"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="88"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="88"/>
+      <c r="AD32" s="88"/>
+      <c r="AE32" s="88"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="88"/>
+      <c r="AH32" s="88"/>
+      <c r="AI32" s="88"/>
+      <c r="AJ32" s="88"/>
+      <c r="AK32" s="88"/>
+      <c r="AL32" s="88"/>
+      <c r="AM32" s="88"/>
+      <c r="AN32" s="88"/>
+      <c r="AO32" s="89"/>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" s="83"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="88"/>
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="88"/>
+      <c r="AD33" s="88"/>
+      <c r="AE33" s="88"/>
+      <c r="AF33" s="88"/>
+      <c r="AG33" s="88"/>
+      <c r="AH33" s="88"/>
+      <c r="AI33" s="88"/>
+      <c r="AJ33" s="88"/>
+      <c r="AK33" s="88"/>
+      <c r="AL33" s="88"/>
+      <c r="AM33" s="88"/>
+      <c r="AN33" s="88"/>
+      <c r="AO33" s="89"/>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A34" s="83"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="88"/>
+      <c r="AB34" s="88"/>
+      <c r="AC34" s="88"/>
+      <c r="AD34" s="88"/>
+      <c r="AE34" s="88"/>
+      <c r="AF34" s="88"/>
+      <c r="AG34" s="88"/>
+      <c r="AH34" s="88"/>
+      <c r="AI34" s="88"/>
+      <c r="AJ34" s="88"/>
+      <c r="AK34" s="88"/>
+      <c r="AL34" s="88"/>
+      <c r="AM34" s="88"/>
+      <c r="AN34" s="88"/>
+      <c r="AO34" s="89"/>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A35" s="83"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="91"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="91"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="91"/>
+      <c r="AA35" s="91"/>
+      <c r="AB35" s="91"/>
+      <c r="AC35" s="91"/>
+      <c r="AD35" s="91"/>
+      <c r="AE35" s="91"/>
+      <c r="AF35" s="91"/>
+      <c r="AG35" s="91"/>
+      <c r="AH35" s="91"/>
+      <c r="AI35" s="91"/>
+      <c r="AJ35" s="91"/>
+      <c r="AK35" s="91"/>
+      <c r="AL35" s="91"/>
+      <c r="AM35" s="91"/>
+      <c r="AN35" s="91"/>
+      <c r="AO35" s="92"/>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A36" s="83">
+        <v>4</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="85"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="85"/>
+      <c r="AC36" s="85"/>
+      <c r="AD36" s="85"/>
+      <c r="AE36" s="85"/>
+      <c r="AF36" s="85"/>
+      <c r="AG36" s="85"/>
+      <c r="AH36" s="85"/>
+      <c r="AI36" s="85"/>
+      <c r="AJ36" s="85"/>
+      <c r="AK36" s="85"/>
+      <c r="AL36" s="85"/>
+      <c r="AM36" s="85"/>
+      <c r="AN36" s="85"/>
+      <c r="AO36" s="86"/>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A37" s="83"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="88"/>
+      <c r="V37" s="88"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="88"/>
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="88"/>
+      <c r="AA37" s="88"/>
+      <c r="AB37" s="88"/>
+      <c r="AC37" s="88"/>
+      <c r="AD37" s="88"/>
+      <c r="AE37" s="88"/>
+      <c r="AF37" s="88"/>
+      <c r="AG37" s="88"/>
+      <c r="AH37" s="88"/>
+      <c r="AI37" s="88"/>
+      <c r="AJ37" s="88"/>
+      <c r="AK37" s="88"/>
+      <c r="AL37" s="88"/>
+      <c r="AM37" s="88"/>
+      <c r="AN37" s="88"/>
+      <c r="AO37" s="89"/>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A38" s="83"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="O38" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="88"/>
+      <c r="V38" s="88"/>
+      <c r="W38" s="88"/>
+      <c r="X38" s="88"/>
+      <c r="Y38" s="88"/>
+      <c r="Z38" s="88"/>
+      <c r="AA38" s="88"/>
+      <c r="AB38" s="88"/>
+      <c r="AC38" s="88"/>
+      <c r="AD38" s="88"/>
+      <c r="AE38" s="88"/>
+      <c r="AF38" s="88"/>
+      <c r="AG38" s="88"/>
+      <c r="AH38" s="88"/>
+      <c r="AI38" s="88"/>
+      <c r="AJ38" s="88"/>
+      <c r="AK38" s="88"/>
+      <c r="AL38" s="88"/>
+      <c r="AM38" s="88"/>
+      <c r="AN38" s="88"/>
+      <c r="AO38" s="89"/>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A39" s="83"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="97"/>
+      <c r="O39" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="88"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="88"/>
+      <c r="Y39" s="88"/>
+      <c r="Z39" s="88"/>
+      <c r="AA39" s="88"/>
+      <c r="AB39" s="88"/>
+      <c r="AC39" s="88"/>
+      <c r="AD39" s="88"/>
+      <c r="AE39" s="88"/>
+      <c r="AF39" s="88"/>
+      <c r="AG39" s="88"/>
+      <c r="AH39" s="88"/>
+      <c r="AI39" s="88"/>
+      <c r="AJ39" s="88"/>
+      <c r="AK39" s="88"/>
+      <c r="AL39" s="88"/>
+      <c r="AM39" s="88"/>
+      <c r="AN39" s="88"/>
+      <c r="AO39" s="89"/>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A40" s="83"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="89"/>
+      <c r="O40" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="88"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="88"/>
+      <c r="Y40" s="88"/>
+      <c r="Z40" s="88"/>
+      <c r="AA40" s="88"/>
+      <c r="AB40" s="88"/>
+      <c r="AC40" s="88"/>
+      <c r="AD40" s="88"/>
+      <c r="AE40" s="88"/>
+      <c r="AF40" s="88"/>
+      <c r="AG40" s="88"/>
+      <c r="AH40" s="88"/>
+      <c r="AI40" s="88"/>
+      <c r="AJ40" s="88"/>
+      <c r="AK40" s="88"/>
+      <c r="AL40" s="88"/>
+      <c r="AM40" s="88"/>
+      <c r="AN40" s="88"/>
+      <c r="AO40" s="89"/>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A41" s="83"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="88"/>
+      <c r="W41" s="88"/>
+      <c r="X41" s="88"/>
+      <c r="Y41" s="88"/>
+      <c r="Z41" s="88"/>
+      <c r="AA41" s="88"/>
+      <c r="AB41" s="88"/>
+      <c r="AC41" s="88"/>
+      <c r="AD41" s="88"/>
+      <c r="AE41" s="88"/>
+      <c r="AF41" s="88"/>
+      <c r="AG41" s="88"/>
+      <c r="AH41" s="88"/>
+      <c r="AI41" s="88"/>
+      <c r="AJ41" s="88"/>
+      <c r="AK41" s="88"/>
+      <c r="AL41" s="88"/>
+      <c r="AM41" s="88"/>
+      <c r="AN41" s="88"/>
+      <c r="AO41" s="89"/>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A42" s="83"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="P42" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="88"/>
+      <c r="V42" s="88"/>
+      <c r="W42" s="88"/>
+      <c r="X42" s="88"/>
+      <c r="Y42" s="88"/>
+      <c r="Z42" s="88"/>
+      <c r="AA42" s="88"/>
+      <c r="AB42" s="88"/>
+      <c r="AC42" s="88"/>
+      <c r="AD42" s="88"/>
+      <c r="AE42" s="88"/>
+      <c r="AF42" s="88"/>
+      <c r="AG42" s="88"/>
+      <c r="AH42" s="88"/>
+      <c r="AI42" s="88"/>
+      <c r="AJ42" s="88"/>
+      <c r="AK42" s="88"/>
+      <c r="AL42" s="88"/>
+      <c r="AM42" s="88"/>
+      <c r="AN42" s="88"/>
+      <c r="AO42" s="89"/>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A43" s="83"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="P43" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q43" s="88"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="88"/>
+      <c r="U43" s="88"/>
+      <c r="V43" s="88"/>
+      <c r="W43" s="88"/>
+      <c r="X43" s="88"/>
+      <c r="Y43" s="88"/>
+      <c r="Z43" s="88"/>
+      <c r="AA43" s="88"/>
+      <c r="AB43" s="88"/>
+      <c r="AC43" s="88"/>
+      <c r="AD43" s="88"/>
+      <c r="AE43" s="88"/>
+      <c r="AF43" s="88"/>
+      <c r="AG43" s="88"/>
+      <c r="AH43" s="88"/>
+      <c r="AI43" s="88"/>
+      <c r="AJ43" s="88"/>
+      <c r="AK43" s="88"/>
+      <c r="AL43" s="88"/>
+      <c r="AM43" s="88"/>
+      <c r="AN43" s="88"/>
+      <c r="AO43" s="89"/>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A44" s="83"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="P44" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="88"/>
+      <c r="T44" s="88"/>
+      <c r="U44" s="88"/>
+      <c r="V44" s="88"/>
+      <c r="W44" s="88"/>
+      <c r="X44" s="88"/>
+      <c r="Y44" s="88"/>
+      <c r="Z44" s="88"/>
+      <c r="AA44" s="88"/>
+      <c r="AB44" s="88"/>
+      <c r="AC44" s="88"/>
+      <c r="AD44" s="88"/>
+      <c r="AE44" s="88"/>
+      <c r="AF44" s="88"/>
+      <c r="AG44" s="88"/>
+      <c r="AH44" s="88"/>
+      <c r="AI44" s="88"/>
+      <c r="AJ44" s="88"/>
+      <c r="AK44" s="88"/>
+      <c r="AL44" s="88"/>
+      <c r="AM44" s="88"/>
+      <c r="AN44" s="88"/>
+      <c r="AO44" s="89"/>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A45" s="83"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="89"/>
+      <c r="O45" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="P45" s="88" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="88"/>
+      <c r="W45" s="88"/>
+      <c r="X45" s="88"/>
+      <c r="Y45" s="88"/>
+      <c r="Z45" s="88"/>
+      <c r="AA45" s="88"/>
+      <c r="AB45" s="88"/>
+      <c r="AC45" s="88"/>
+      <c r="AD45" s="88"/>
+      <c r="AE45" s="88"/>
+      <c r="AF45" s="88"/>
+      <c r="AG45" s="88"/>
+      <c r="AH45" s="88"/>
+      <c r="AI45" s="88"/>
+      <c r="AJ45" s="88"/>
+      <c r="AK45" s="88"/>
+      <c r="AL45" s="88"/>
+      <c r="AM45" s="88"/>
+      <c r="AN45" s="88"/>
+      <c r="AO45" s="89"/>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A46" s="83"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="89"/>
+      <c r="O46" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="P46" s="88" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q46" s="88"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="88"/>
+      <c r="U46" s="88"/>
+      <c r="V46" s="88"/>
+      <c r="W46" s="88"/>
+      <c r="X46" s="88"/>
+      <c r="Y46" s="88"/>
+      <c r="Z46" s="88"/>
+      <c r="AA46" s="88"/>
+      <c r="AB46" s="88"/>
+      <c r="AC46" s="88"/>
+      <c r="AD46" s="88"/>
+      <c r="AE46" s="88"/>
+      <c r="AF46" s="88"/>
+      <c r="AG46" s="88"/>
+      <c r="AH46" s="88"/>
+      <c r="AI46" s="88"/>
+      <c r="AJ46" s="88"/>
+      <c r="AK46" s="88"/>
+      <c r="AL46" s="88"/>
+      <c r="AM46" s="88"/>
+      <c r="AN46" s="88"/>
+      <c r="AO46" s="89"/>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A47" s="83"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="P47" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="88"/>
+      <c r="W47" s="88"/>
+      <c r="X47" s="88"/>
+      <c r="Y47" s="88"/>
+      <c r="Z47" s="88"/>
+      <c r="AA47" s="88"/>
+      <c r="AB47" s="88"/>
+      <c r="AC47" s="88"/>
+      <c r="AD47" s="88"/>
+      <c r="AE47" s="88"/>
+      <c r="AF47" s="88"/>
+      <c r="AG47" s="88"/>
+      <c r="AH47" s="88"/>
+      <c r="AI47" s="88"/>
+      <c r="AJ47" s="88"/>
+      <c r="AK47" s="88"/>
+      <c r="AL47" s="88"/>
+      <c r="AM47" s="88"/>
+      <c r="AN47" s="88"/>
+      <c r="AO47" s="89"/>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A48" s="83"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="87"/>
+      <c r="P48" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q48" s="88"/>
+      <c r="R48" s="88"/>
+      <c r="S48" s="88"/>
+      <c r="T48" s="88"/>
+      <c r="U48" s="88"/>
+      <c r="V48" s="88"/>
+      <c r="W48" s="88"/>
+      <c r="X48" s="88"/>
+      <c r="Y48" s="88"/>
+      <c r="Z48" s="88"/>
+      <c r="AA48" s="88"/>
+      <c r="AB48" s="88"/>
+      <c r="AC48" s="88"/>
+      <c r="AD48" s="88"/>
+      <c r="AE48" s="88"/>
+      <c r="AF48" s="88"/>
+      <c r="AG48" s="88"/>
+      <c r="AH48" s="88"/>
+      <c r="AI48" s="88"/>
+      <c r="AJ48" s="88"/>
+      <c r="AK48" s="88"/>
+      <c r="AL48" s="88"/>
+      <c r="AM48" s="88"/>
+      <c r="AN48" s="88"/>
+      <c r="AO48" s="89"/>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A49" s="83"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="89"/>
+      <c r="P49" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="R49" s="88"/>
+      <c r="S49" s="88"/>
+      <c r="T49" s="88"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="88"/>
+      <c r="W49" s="88"/>
+      <c r="X49" s="88"/>
+      <c r="Y49" s="88"/>
+      <c r="Z49" s="88"/>
+      <c r="AA49" s="88"/>
+      <c r="AB49" s="88"/>
+      <c r="AC49" s="88"/>
+      <c r="AD49" s="88"/>
+      <c r="AE49" s="88"/>
+      <c r="AF49" s="88"/>
+      <c r="AG49" s="88"/>
+      <c r="AH49" s="88"/>
+      <c r="AI49" s="88"/>
+      <c r="AJ49" s="88"/>
+      <c r="AK49" s="88"/>
+      <c r="AL49" s="88"/>
+      <c r="AM49" s="88"/>
+      <c r="AN49" s="88"/>
+      <c r="AO49" s="89"/>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A50" s="83"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="89"/>
+      <c r="P50" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="R50" s="88"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="88"/>
+      <c r="U50" s="88"/>
+      <c r="V50" s="88"/>
+      <c r="W50" s="88"/>
+      <c r="X50" s="88"/>
+      <c r="Y50" s="88"/>
+      <c r="Z50" s="88"/>
+      <c r="AA50" s="88"/>
+      <c r="AB50" s="88"/>
+      <c r="AC50" s="88"/>
+      <c r="AD50" s="88"/>
+      <c r="AE50" s="88"/>
+      <c r="AF50" s="88"/>
+      <c r="AG50" s="88"/>
+      <c r="AH50" s="88"/>
+      <c r="AI50" s="88"/>
+      <c r="AJ50" s="88"/>
+      <c r="AK50" s="88"/>
+      <c r="AL50" s="88"/>
+      <c r="AM50" s="88"/>
+      <c r="AN50" s="88"/>
+      <c r="AO50" s="89"/>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A51" s="83"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="89"/>
+      <c r="P51" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="R51" s="88"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="88"/>
+      <c r="U51" s="88"/>
+      <c r="V51" s="88"/>
+      <c r="W51" s="88"/>
+      <c r="X51" s="88"/>
+      <c r="Y51" s="88"/>
+      <c r="Z51" s="88"/>
+      <c r="AA51" s="88"/>
+      <c r="AB51" s="88"/>
+      <c r="AC51" s="88"/>
+      <c r="AD51" s="88"/>
+      <c r="AE51" s="88"/>
+      <c r="AF51" s="88"/>
+      <c r="AG51" s="88"/>
+      <c r="AH51" s="88"/>
+      <c r="AI51" s="88"/>
+      <c r="AJ51" s="88"/>
+      <c r="AK51" s="88"/>
+      <c r="AL51" s="88"/>
+      <c r="AM51" s="88"/>
+      <c r="AN51" s="88"/>
+      <c r="AO51" s="89"/>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A52" s="83"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="K52" s="88"/>
+      <c r="L52" s="88"/>
+      <c r="M52" s="89"/>
+      <c r="Q52" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="R52" s="88"/>
+      <c r="S52" s="88"/>
+      <c r="T52" s="88"/>
+      <c r="U52" s="88"/>
+      <c r="V52" s="88"/>
+      <c r="W52" s="88"/>
+      <c r="X52" s="88"/>
+      <c r="Y52" s="88"/>
+      <c r="Z52" s="88"/>
+      <c r="AA52" s="88"/>
+      <c r="AB52" s="88"/>
+      <c r="AC52" s="88"/>
+      <c r="AD52" s="88"/>
+      <c r="AE52" s="88"/>
+      <c r="AF52" s="88"/>
+      <c r="AG52" s="88"/>
+      <c r="AH52" s="88"/>
+      <c r="AI52" s="88"/>
+      <c r="AJ52" s="88"/>
+      <c r="AK52" s="88"/>
+      <c r="AL52" s="88"/>
+      <c r="AM52" s="88"/>
+      <c r="AN52" s="88"/>
+      <c r="AO52" s="89"/>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A53" s="83"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="89"/>
+      <c r="P53" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="R53" s="88"/>
+      <c r="S53" s="88"/>
+      <c r="T53" s="88"/>
+      <c r="U53" s="88"/>
+      <c r="V53" s="88"/>
+      <c r="W53" s="88"/>
+      <c r="X53" s="88"/>
+      <c r="Y53" s="88"/>
+      <c r="Z53" s="88"/>
+      <c r="AA53" s="88"/>
+      <c r="AB53" s="88"/>
+      <c r="AC53" s="88"/>
+      <c r="AD53" s="88"/>
+      <c r="AE53" s="88"/>
+      <c r="AF53" s="88"/>
+      <c r="AG53" s="88"/>
+      <c r="AH53" s="88"/>
+      <c r="AI53" s="88"/>
+      <c r="AJ53" s="88"/>
+      <c r="AK53" s="88"/>
+      <c r="AL53" s="88"/>
+      <c r="AM53" s="88"/>
+      <c r="AN53" s="88"/>
+      <c r="AO53" s="89"/>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A54" s="83"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="89"/>
+      <c r="Q54" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="S54" s="88"/>
+      <c r="T54" s="88"/>
+      <c r="U54" s="88"/>
+      <c r="V54" s="88"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="88"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="88"/>
+      <c r="AA54" s="88"/>
+      <c r="AB54" s="88"/>
+      <c r="AC54" s="88"/>
+      <c r="AD54" s="88"/>
+      <c r="AE54" s="88"/>
+      <c r="AF54" s="88"/>
+      <c r="AG54" s="88"/>
+      <c r="AH54" s="88"/>
+      <c r="AI54" s="88"/>
+      <c r="AJ54" s="88"/>
+      <c r="AK54" s="88"/>
+      <c r="AL54" s="88"/>
+      <c r="AM54" s="88"/>
+      <c r="AN54" s="88"/>
+      <c r="AO54" s="89"/>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A55" s="83"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="89"/>
+      <c r="Q55" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="S55" s="88"/>
+      <c r="T55" s="88"/>
+      <c r="U55" s="88"/>
+      <c r="V55" s="88"/>
+      <c r="W55" s="88"/>
+      <c r="X55" s="88"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="88"/>
+      <c r="AA55" s="88"/>
+      <c r="AB55" s="88"/>
+      <c r="AC55" s="88"/>
+      <c r="AD55" s="88"/>
+      <c r="AE55" s="88"/>
+      <c r="AF55" s="88"/>
+      <c r="AG55" s="88"/>
+      <c r="AH55" s="88"/>
+      <c r="AI55" s="88"/>
+      <c r="AJ55" s="88"/>
+      <c r="AK55" s="88"/>
+      <c r="AL55" s="88"/>
+      <c r="AM55" s="88"/>
+      <c r="AN55" s="88"/>
+      <c r="AO55" s="89"/>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A56" s="83"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="88"/>
+      <c r="M56" s="89"/>
+      <c r="Q56" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="R56" s="88" t="s">
+        <v>231</v>
+      </c>
+      <c r="S56" s="88"/>
+      <c r="T56" s="88"/>
+      <c r="U56" s="88"/>
+      <c r="V56" s="88"/>
+      <c r="W56" s="88"/>
+      <c r="X56" s="88"/>
+      <c r="Y56" s="88"/>
+      <c r="Z56" s="88"/>
+      <c r="AA56" s="88"/>
+      <c r="AB56" s="88"/>
+      <c r="AC56" s="88"/>
+      <c r="AD56" s="88"/>
+      <c r="AE56" s="88"/>
+      <c r="AF56" s="88"/>
+      <c r="AG56" s="88"/>
+      <c r="AH56" s="88"/>
+      <c r="AI56" s="88"/>
+      <c r="AJ56" s="88"/>
+      <c r="AK56" s="88"/>
+      <c r="AL56" s="88"/>
+      <c r="AM56" s="88"/>
+      <c r="AN56" s="88"/>
+      <c r="AO56" s="89"/>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A57" s="83"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="88"/>
+      <c r="M57" s="89"/>
+      <c r="N57" s="87"/>
+      <c r="O57" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="P57" s="88" t="s">
+        <v>220</v>
+      </c>
+      <c r="R57" s="88"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="88"/>
+      <c r="U57" s="88"/>
+      <c r="V57" s="88"/>
+      <c r="W57" s="88"/>
+      <c r="X57" s="88"/>
+      <c r="Y57" s="88"/>
+      <c r="Z57" s="88"/>
+      <c r="AA57" s="88"/>
+      <c r="AB57" s="88"/>
+      <c r="AC57" s="88"/>
+      <c r="AD57" s="88"/>
+      <c r="AE57" s="88"/>
+      <c r="AF57" s="88"/>
+      <c r="AG57" s="88"/>
+      <c r="AH57" s="88"/>
+      <c r="AI57" s="88"/>
+      <c r="AJ57" s="88"/>
+      <c r="AK57" s="88"/>
+      <c r="AL57" s="88"/>
+      <c r="AM57" s="88"/>
+      <c r="AN57" s="88"/>
+      <c r="AO57" s="89"/>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A58" s="83"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="88"/>
+      <c r="L58" s="88"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="87"/>
+      <c r="P58" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="88" t="s">
+        <v>222</v>
+      </c>
+      <c r="R58" s="88"/>
+      <c r="S58" s="88"/>
+      <c r="T58" s="88"/>
+      <c r="U58" s="88"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
+      <c r="X58" s="88"/>
+      <c r="Y58" s="88"/>
+      <c r="Z58" s="88"/>
+      <c r="AA58" s="88"/>
+      <c r="AB58" s="88"/>
+      <c r="AC58" s="88"/>
+      <c r="AD58" s="88"/>
+      <c r="AE58" s="88"/>
+      <c r="AF58" s="88"/>
+      <c r="AG58" s="88"/>
+      <c r="AH58" s="88"/>
+      <c r="AI58" s="88"/>
+      <c r="AJ58" s="88"/>
+      <c r="AK58" s="88"/>
+      <c r="AL58" s="88"/>
+      <c r="AM58" s="88"/>
+      <c r="AN58" s="88"/>
+      <c r="AO58" s="89"/>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A59" s="83"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="88"/>
+      <c r="M59" s="89"/>
+      <c r="N59" s="97"/>
+      <c r="P59" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="R59" s="88"/>
+      <c r="S59" s="88"/>
+      <c r="T59" s="88"/>
+      <c r="U59" s="88"/>
+      <c r="V59" s="88"/>
+      <c r="W59" s="88"/>
+      <c r="X59" s="88"/>
+      <c r="Y59" s="88"/>
+      <c r="Z59" s="88"/>
+      <c r="AA59" s="88"/>
+      <c r="AB59" s="88"/>
+      <c r="AC59" s="88"/>
+      <c r="AD59" s="88"/>
+      <c r="AE59" s="88"/>
+      <c r="AF59" s="88"/>
+      <c r="AG59" s="88"/>
+      <c r="AH59" s="88"/>
+      <c r="AI59" s="88"/>
+      <c r="AJ59" s="88"/>
+      <c r="AK59" s="88"/>
+      <c r="AL59" s="88"/>
+      <c r="AM59" s="88"/>
+      <c r="AN59" s="88"/>
+      <c r="AO59" s="89"/>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A60" s="83"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="88"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="88"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="97"/>
+      <c r="P60" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="88" t="s">
+        <v>223</v>
+      </c>
+      <c r="R60" s="88"/>
+      <c r="S60" s="88"/>
+      <c r="T60" s="88"/>
+      <c r="U60" s="88"/>
+      <c r="V60" s="88"/>
+      <c r="W60" s="88"/>
+      <c r="X60" s="88"/>
+      <c r="Y60" s="88"/>
+      <c r="Z60" s="88"/>
+      <c r="AA60" s="88"/>
+      <c r="AB60" s="88"/>
+      <c r="AC60" s="88"/>
+      <c r="AD60" s="88"/>
+      <c r="AE60" s="88"/>
+      <c r="AF60" s="88"/>
+      <c r="AG60" s="88"/>
+      <c r="AH60" s="88"/>
+      <c r="AI60" s="88"/>
+      <c r="AJ60" s="88"/>
+      <c r="AK60" s="88"/>
+      <c r="AL60" s="88"/>
+      <c r="AM60" s="88"/>
+      <c r="AN60" s="88"/>
+      <c r="AO60" s="89"/>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A61" s="83"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="88"/>
+      <c r="M61" s="89"/>
+      <c r="N61" s="87"/>
+      <c r="P61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="88" t="s">
+        <v>220</v>
+      </c>
+      <c r="R61" s="88"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="88"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="88"/>
+      <c r="W61" s="88"/>
+      <c r="X61" s="88"/>
+      <c r="Y61" s="88"/>
+      <c r="Z61" s="88"/>
+      <c r="AA61" s="88"/>
+      <c r="AB61" s="88"/>
+      <c r="AC61" s="88"/>
+      <c r="AD61" s="88"/>
+      <c r="AE61" s="88"/>
+      <c r="AF61" s="88"/>
+      <c r="AG61" s="88"/>
+      <c r="AH61" s="88"/>
+      <c r="AI61" s="88"/>
+      <c r="AJ61" s="88"/>
+      <c r="AK61" s="88"/>
+      <c r="AL61" s="88"/>
+      <c r="AM61" s="88"/>
+      <c r="AN61" s="88"/>
+      <c r="AO61" s="89"/>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A62" s="83"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="87"/>
+      <c r="Q62" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="R62" s="88"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="88"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="88"/>
+      <c r="W62" s="88"/>
+      <c r="X62" s="88"/>
+      <c r="Y62" s="88"/>
+      <c r="Z62" s="88"/>
+      <c r="AA62" s="88"/>
+      <c r="AB62" s="88"/>
+      <c r="AC62" s="88"/>
+      <c r="AD62" s="88"/>
+      <c r="AE62" s="88"/>
+      <c r="AF62" s="88"/>
+      <c r="AG62" s="88"/>
+      <c r="AH62" s="88"/>
+      <c r="AI62" s="88"/>
+      <c r="AJ62" s="88"/>
+      <c r="AK62" s="88"/>
+      <c r="AL62" s="88"/>
+      <c r="AM62" s="88"/>
+      <c r="AN62" s="88"/>
+      <c r="AO62" s="89"/>
+    </row>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A63" s="83"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="88"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="88"/>
+      <c r="M63" s="89"/>
+      <c r="N63" s="87"/>
+      <c r="O63" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="P63" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="S63" s="88"/>
+      <c r="T63" s="88"/>
+      <c r="U63" s="88"/>
+      <c r="V63" s="88"/>
+      <c r="W63" s="88"/>
+      <c r="X63" s="88"/>
+      <c r="Y63" s="88"/>
+      <c r="Z63" s="88"/>
+      <c r="AA63" s="88"/>
+      <c r="AB63" s="88"/>
+      <c r="AC63" s="88"/>
+      <c r="AD63" s="88"/>
+      <c r="AE63" s="88"/>
+      <c r="AF63" s="88"/>
+      <c r="AG63" s="88"/>
+      <c r="AH63" s="88"/>
+      <c r="AI63" s="88"/>
+      <c r="AJ63" s="88"/>
+      <c r="AK63" s="88"/>
+      <c r="AL63" s="88"/>
+      <c r="AM63" s="88"/>
+      <c r="AN63" s="88"/>
+      <c r="AO63" s="89"/>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A64" s="83"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="88"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="87"/>
+      <c r="O64" s="96"/>
+      <c r="P64" s="88"/>
+      <c r="S64" s="88"/>
+      <c r="T64" s="88"/>
+      <c r="U64" s="88"/>
+      <c r="V64" s="88"/>
+      <c r="W64" s="88"/>
+      <c r="X64" s="88"/>
+      <c r="Y64" s="88"/>
+      <c r="Z64" s="88"/>
+      <c r="AA64" s="88"/>
+      <c r="AB64" s="88"/>
+      <c r="AC64" s="88"/>
+      <c r="AD64" s="88"/>
+      <c r="AE64" s="88"/>
+      <c r="AF64" s="88"/>
+      <c r="AG64" s="88"/>
+      <c r="AH64" s="88"/>
+      <c r="AI64" s="88"/>
+      <c r="AJ64" s="88"/>
+      <c r="AK64" s="88"/>
+      <c r="AL64" s="88"/>
+      <c r="AM64" s="88"/>
+      <c r="AN64" s="88"/>
+      <c r="AO64" s="89"/>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A65" s="83"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="89"/>
+      <c r="N65" s="87"/>
+      <c r="O65" s="96"/>
+      <c r="P65" s="88"/>
+      <c r="S65" s="88"/>
+      <c r="T65" s="88"/>
+      <c r="U65" s="88"/>
+      <c r="V65" s="88"/>
+      <c r="W65" s="88"/>
+      <c r="X65" s="88"/>
+      <c r="Y65" s="88"/>
+      <c r="Z65" s="88"/>
+      <c r="AA65" s="88"/>
+      <c r="AB65" s="88"/>
+      <c r="AC65" s="88"/>
+      <c r="AD65" s="88"/>
+      <c r="AE65" s="88"/>
+      <c r="AF65" s="88"/>
+      <c r="AG65" s="88"/>
+      <c r="AH65" s="88"/>
+      <c r="AI65" s="88"/>
+      <c r="AJ65" s="88"/>
+      <c r="AK65" s="88"/>
+      <c r="AL65" s="88"/>
+      <c r="AM65" s="88"/>
+      <c r="AN65" s="88"/>
+      <c r="AO65" s="89"/>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A66" s="83"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="88"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="88"/>
+      <c r="M66" s="89"/>
+      <c r="N66" s="87"/>
+      <c r="O66" s="96"/>
+      <c r="P66" s="88"/>
+      <c r="S66" s="88"/>
+      <c r="T66" s="88"/>
+      <c r="U66" s="88"/>
+      <c r="V66" s="88"/>
+      <c r="W66" s="88"/>
+      <c r="X66" s="88"/>
+      <c r="Y66" s="88"/>
+      <c r="Z66" s="88"/>
+      <c r="AA66" s="88"/>
+      <c r="AB66" s="88"/>
+      <c r="AC66" s="88"/>
+      <c r="AD66" s="88"/>
+      <c r="AE66" s="88"/>
+      <c r="AF66" s="88"/>
+      <c r="AG66" s="88"/>
+      <c r="AH66" s="88"/>
+      <c r="AI66" s="88"/>
+      <c r="AJ66" s="88"/>
+      <c r="AK66" s="88"/>
+      <c r="AL66" s="88"/>
+      <c r="AM66" s="88"/>
+      <c r="AN66" s="88"/>
+      <c r="AO66" s="89"/>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A67" s="83"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="87"/>
+      <c r="O67" s="96"/>
+      <c r="P67" s="88"/>
+      <c r="S67" s="88"/>
+      <c r="T67" s="88"/>
+      <c r="U67" s="88"/>
+      <c r="V67" s="88"/>
+      <c r="W67" s="88"/>
+      <c r="X67" s="88"/>
+      <c r="Y67" s="88"/>
+      <c r="Z67" s="88"/>
+      <c r="AA67" s="88"/>
+      <c r="AB67" s="88"/>
+      <c r="AC67" s="88"/>
+      <c r="AD67" s="88"/>
+      <c r="AE67" s="88"/>
+      <c r="AF67" s="88"/>
+      <c r="AG67" s="88"/>
+      <c r="AH67" s="88"/>
+      <c r="AI67" s="88"/>
+      <c r="AJ67" s="88"/>
+      <c r="AK67" s="88"/>
+      <c r="AL67" s="88"/>
+      <c r="AM67" s="88"/>
+      <c r="AN67" s="88"/>
+      <c r="AO67" s="89"/>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A68" s="83"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="88"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="88"/>
+      <c r="M68" s="89"/>
+      <c r="N68" s="87"/>
+      <c r="O68" s="96"/>
+      <c r="P68" s="88"/>
+      <c r="S68" s="88"/>
+      <c r="T68" s="88"/>
+      <c r="U68" s="88"/>
+      <c r="V68" s="88"/>
+      <c r="W68" s="88"/>
+      <c r="X68" s="88"/>
+      <c r="Y68" s="88"/>
+      <c r="Z68" s="88"/>
+      <c r="AA68" s="88"/>
+      <c r="AB68" s="88"/>
+      <c r="AC68" s="88"/>
+      <c r="AD68" s="88"/>
+      <c r="AE68" s="88"/>
+      <c r="AF68" s="88"/>
+      <c r="AG68" s="88"/>
+      <c r="AH68" s="88"/>
+      <c r="AI68" s="88"/>
+      <c r="AJ68" s="88"/>
+      <c r="AK68" s="88"/>
+      <c r="AL68" s="88"/>
+      <c r="AM68" s="88"/>
+      <c r="AN68" s="88"/>
+      <c r="AO68" s="89"/>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A69" s="83"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="88"/>
+      <c r="M69" s="89"/>
+      <c r="N69" s="87"/>
+      <c r="O69" s="96"/>
+      <c r="P69" s="88"/>
+      <c r="S69" s="88"/>
+      <c r="T69" s="88"/>
+      <c r="U69" s="88"/>
+      <c r="V69" s="88"/>
+      <c r="W69" s="88"/>
+      <c r="X69" s="88"/>
+      <c r="Y69" s="88"/>
+      <c r="Z69" s="88"/>
+      <c r="AA69" s="88"/>
+      <c r="AB69" s="88"/>
+      <c r="AC69" s="88"/>
+      <c r="AD69" s="88"/>
+      <c r="AE69" s="88"/>
+      <c r="AF69" s="88"/>
+      <c r="AG69" s="88"/>
+      <c r="AH69" s="88"/>
+      <c r="AI69" s="88"/>
+      <c r="AJ69" s="88"/>
+      <c r="AK69" s="88"/>
+      <c r="AL69" s="88"/>
+      <c r="AM69" s="88"/>
+      <c r="AN69" s="88"/>
+      <c r="AO69" s="89"/>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A70" s="83"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="91"/>
+      <c r="M70" s="92"/>
+      <c r="N70" s="90"/>
+      <c r="O70" s="91"/>
+      <c r="P70" s="91"/>
+      <c r="Q70" s="91"/>
+      <c r="R70" s="91"/>
+      <c r="S70" s="91"/>
+      <c r="T70" s="91"/>
+      <c r="U70" s="91"/>
+      <c r="V70" s="91"/>
+      <c r="W70" s="91"/>
+      <c r="X70" s="91"/>
+      <c r="Y70" s="91"/>
+      <c r="Z70" s="91"/>
+      <c r="AA70" s="91"/>
+      <c r="AB70" s="91"/>
+      <c r="AC70" s="91"/>
+      <c r="AD70" s="91"/>
+      <c r="AE70" s="91"/>
+      <c r="AF70" s="91"/>
+      <c r="AG70" s="91"/>
+      <c r="AH70" s="91"/>
+      <c r="AI70" s="91"/>
+      <c r="AJ70" s="91"/>
+      <c r="AK70" s="91"/>
+      <c r="AL70" s="91"/>
+      <c r="AM70" s="91"/>
+      <c r="AN70" s="91"/>
+      <c r="AO70" s="92"/>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A71" s="93">
+        <v>5</v>
+      </c>
+      <c r="B71" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
+      <c r="J71" s="85"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="85"/>
+      <c r="M71" s="86"/>
+      <c r="N71" s="84"/>
+      <c r="O71" s="85"/>
+      <c r="P71" s="85"/>
+      <c r="Q71" s="85"/>
+      <c r="R71" s="85"/>
+      <c r="S71" s="85"/>
+      <c r="T71" s="85"/>
+      <c r="U71" s="85"/>
+      <c r="V71" s="85"/>
+      <c r="W71" s="85"/>
+      <c r="X71" s="85"/>
+      <c r="Y71" s="85"/>
+      <c r="Z71" s="85"/>
+      <c r="AA71" s="85"/>
+      <c r="AB71" s="85"/>
+      <c r="AC71" s="85"/>
+      <c r="AD71" s="85"/>
+      <c r="AE71" s="85"/>
+      <c r="AF71" s="85"/>
+      <c r="AG71" s="85"/>
+      <c r="AH71" s="85"/>
+      <c r="AI71" s="85"/>
+      <c r="AJ71" s="85"/>
+      <c r="AK71" s="85"/>
+      <c r="AL71" s="85"/>
+      <c r="AM71" s="85"/>
+      <c r="AN71" s="85"/>
+      <c r="AO71" s="86"/>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A72" s="95"/>
+      <c r="B72" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="88"/>
+      <c r="L72" s="88"/>
+      <c r="M72" s="89"/>
+      <c r="N72" s="87"/>
+      <c r="O72" s="88"/>
+      <c r="P72" s="88"/>
+      <c r="Q72" s="88"/>
+      <c r="R72" s="88"/>
+      <c r="S72" s="88"/>
+      <c r="T72" s="88"/>
+      <c r="U72" s="88"/>
+      <c r="V72" s="88"/>
+      <c r="W72" s="88"/>
+      <c r="X72" s="88"/>
+      <c r="Y72" s="88"/>
+      <c r="Z72" s="88"/>
+      <c r="AA72" s="88"/>
+      <c r="AB72" s="88"/>
+      <c r="AC72" s="88"/>
+      <c r="AD72" s="88"/>
+      <c r="AE72" s="88"/>
+      <c r="AF72" s="88"/>
+      <c r="AG72" s="88"/>
+      <c r="AH72" s="88"/>
+      <c r="AI72" s="88"/>
+      <c r="AJ72" s="88"/>
+      <c r="AK72" s="88"/>
+      <c r="AL72" s="88"/>
+      <c r="AM72" s="88"/>
+      <c r="AN72" s="88"/>
+      <c r="AO72" s="89"/>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A73" s="95"/>
+      <c r="B73" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="88" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="88"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="88"/>
+      <c r="L73" s="88"/>
+      <c r="M73" s="89"/>
+      <c r="N73" s="87"/>
+      <c r="O73" s="88"/>
+      <c r="P73" s="88"/>
+      <c r="Q73" s="88"/>
+      <c r="R73" s="88"/>
+      <c r="S73" s="88"/>
+      <c r="T73" s="88"/>
+      <c r="U73" s="88"/>
+      <c r="V73" s="88"/>
+      <c r="W73" s="88"/>
+      <c r="X73" s="88"/>
+      <c r="Y73" s="88"/>
+      <c r="Z73" s="88"/>
+      <c r="AA73" s="88"/>
+      <c r="AB73" s="88"/>
+      <c r="AC73" s="88"/>
+      <c r="AD73" s="88"/>
+      <c r="AE73" s="88"/>
+      <c r="AF73" s="88"/>
+      <c r="AG73" s="88"/>
+      <c r="AH73" s="88"/>
+      <c r="AI73" s="88"/>
+      <c r="AJ73" s="88"/>
+      <c r="AK73" s="88"/>
+      <c r="AL73" s="88"/>
+      <c r="AM73" s="88"/>
+      <c r="AN73" s="88"/>
+      <c r="AO73" s="89"/>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A74" s="94"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="91"/>
+      <c r="M74" s="92"/>
+      <c r="N74" s="90"/>
+      <c r="O74" s="91"/>
+      <c r="P74" s="91"/>
+      <c r="Q74" s="91"/>
+      <c r="R74" s="91"/>
+      <c r="S74" s="91"/>
+      <c r="T74" s="91"/>
+      <c r="U74" s="91"/>
+      <c r="V74" s="91"/>
+      <c r="W74" s="91"/>
+      <c r="X74" s="91"/>
+      <c r="Y74" s="91"/>
+      <c r="Z74" s="91"/>
+      <c r="AA74" s="91"/>
+      <c r="AB74" s="91"/>
+      <c r="AC74" s="91"/>
+      <c r="AD74" s="91"/>
+      <c r="AE74" s="91"/>
+      <c r="AF74" s="91"/>
+      <c r="AG74" s="91"/>
+      <c r="AH74" s="91"/>
+      <c r="AI74" s="91"/>
+      <c r="AJ74" s="91"/>
+      <c r="AK74" s="91"/>
+      <c r="AL74" s="91"/>
+      <c r="AM74" s="91"/>
+      <c r="AN74" s="91"/>
+      <c r="AO74" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N1:AO1"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="A17:A35"/>
+    <mergeCell ref="A36:A70"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3520,17 +7510,17 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="69" t="s">
+      <c r="D4" s="71"/>
+      <c r="E4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="70"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="37" t="s">
         <v>122</v>
       </c>
@@ -3558,7 +7548,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="72"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="37" t="s">
         <v>123</v>
       </c>
@@ -3785,8 +7775,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3827,13 +7817,13 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="74" t="s">
         <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3848,11 +7838,11 @@
       <c r="I3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
       <c r="M3" s="4" t="s">
         <v>81</v>
       </c>
@@ -3861,9 +7851,9 @@
       </c>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="80"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="2" t="s">
         <v>70</v>
       </c>
@@ -3873,19 +7863,19 @@
       <c r="H4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
       <c r="N4" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="80"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="2" t="s">
         <v>70</v>
       </c>
@@ -3903,9 +7893,9 @@
       </c>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="80"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="2" t="s">
         <v>71</v>
       </c>
@@ -3923,9 +7913,9 @@
       </c>
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="80"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="2" t="s">
         <v>70</v>
       </c>
@@ -3943,9 +7933,9 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="80"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="2" t="s">
         <v>70</v>
       </c>
@@ -3955,9 +7945,9 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="80"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="2" t="s">
         <v>71</v>
       </c>
@@ -3966,9 +7956,9 @@
       </c>
     </row>
     <row r="10" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="80"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="2" t="s">
         <v>70</v>
       </c>
@@ -3978,9 +7968,9 @@
       <c r="L10"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="80"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
       <c r="E11" s="2" t="s">
         <v>70</v>
       </c>
@@ -3989,11 +7979,11 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="80"/>
-      <c r="C12" s="76" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="77" t="s">
         <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -4004,9 +7994,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="80"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="2" t="s">
         <v>70</v>
       </c>
@@ -4015,9 +8005,9 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="81"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
